--- a/exo_control/neural_network_parameters/excel/timestamps_typical_lstm.xlsx
+++ b/exo_control/neural_network_parameters/excel/timestamps_typical_lstm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,4082 +467,4082 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42.4399528503418</v>
+        <v>35.78524017333984</v>
       </c>
       <c r="B2" t="n">
-        <v>42.4637336730957</v>
+        <v>0.427807629108429</v>
       </c>
       <c r="C2" t="n">
-        <v>15.05264854431152</v>
+        <v>8.435775756835938</v>
       </c>
       <c r="D2" t="n">
-        <v>16.81018447875977</v>
+        <v>23.12262725830078</v>
       </c>
       <c r="E2" t="n">
-        <v>-22.13852310180664</v>
+        <v>-18.09661102294922</v>
       </c>
       <c r="F2" t="n">
-        <v>-22.37231254577637</v>
+        <v>2.826407432556152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>42.801025390625</v>
+        <v>35.78524017333984</v>
       </c>
       <c r="B3" t="n">
-        <v>43.40211868286133</v>
+        <v>2.050629377365112</v>
       </c>
       <c r="C3" t="n">
-        <v>18.33971786499023</v>
+        <v>7.171243190765381</v>
       </c>
       <c r="D3" t="n">
-        <v>20.82016754150391</v>
+        <v>26.76564788818359</v>
       </c>
       <c r="E3" t="n">
-        <v>-25.37261581420898</v>
+        <v>-21.51498413085938</v>
       </c>
       <c r="F3" t="n">
-        <v>-24.29883193969727</v>
+        <v>-6.129721641540527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>43.19009399414062</v>
+        <v>35.10087966918945</v>
       </c>
       <c r="B4" t="n">
-        <v>43.85645294189453</v>
+        <v>3.775991439819336</v>
       </c>
       <c r="C4" t="n">
-        <v>21.75828552246094</v>
+        <v>7.171243190765381</v>
       </c>
       <c r="D4" t="n">
-        <v>23.95306777954102</v>
+        <v>30.76136589050293</v>
       </c>
       <c r="E4" t="n">
-        <v>-25.37261581420898</v>
+        <v>-24.52420043945312</v>
       </c>
       <c r="F4" t="n">
-        <v>-22.99103164672852</v>
+        <v>-15.337646484375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43.77148056030273</v>
+        <v>33.211181640625</v>
       </c>
       <c r="B5" t="n">
-        <v>41.5675048828125</v>
+        <v>6.039352893829346</v>
       </c>
       <c r="C5" t="n">
-        <v>24.65049743652344</v>
+        <v>5.503483772277832</v>
       </c>
       <c r="D5" t="n">
-        <v>25.86449813842773</v>
+        <v>36.1754264831543</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.70149612426758</v>
+        <v>-26.19246673583984</v>
       </c>
       <c r="F5" t="n">
-        <v>-20.47036170959473</v>
+        <v>-23.44607925415039</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>42.76420211791992</v>
+        <v>31.23324584960938</v>
       </c>
       <c r="B6" t="n">
-        <v>40.15359497070312</v>
+        <v>8.838359832763672</v>
       </c>
       <c r="C6" t="n">
-        <v>26.55404281616211</v>
+        <v>5.972865104675293</v>
       </c>
       <c r="D6" t="n">
-        <v>27.2473258972168</v>
+        <v>42.47882843017578</v>
       </c>
       <c r="E6" t="n">
-        <v>-17.40187072753906</v>
+        <v>-26.19246673583984</v>
       </c>
       <c r="F6" t="n">
-        <v>-15.68712902069092</v>
+        <v>-28.97691535949707</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>40.52523040771484</v>
+        <v>29.23337936401367</v>
       </c>
       <c r="B7" t="n">
-        <v>38.32120132446289</v>
+        <v>12.22256565093994</v>
       </c>
       <c r="C7" t="n">
-        <v>26.55404281616211</v>
+        <v>6.348536491394043</v>
       </c>
       <c r="D7" t="n">
-        <v>27.2473258972168</v>
+        <v>49.07382202148438</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.53896522521973</v>
+        <v>-25.6374626159668</v>
       </c>
       <c r="F7" t="n">
-        <v>-12.2117395401001</v>
+        <v>-31.57899856567383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38.52841949462891</v>
+        <v>27.17803955078125</v>
       </c>
       <c r="B8" t="n">
-        <v>36.12946319580078</v>
+        <v>16.0942325592041</v>
       </c>
       <c r="C8" t="n">
-        <v>28.16069984436035</v>
+        <v>6.430172920227051</v>
       </c>
       <c r="D8" t="n">
-        <v>28.16550064086914</v>
+        <v>55.30905151367188</v>
       </c>
       <c r="E8" t="n">
-        <v>-10.17723560333252</v>
+        <v>-23.67118072509766</v>
       </c>
       <c r="F8" t="n">
-        <v>-7.905364036560059</v>
+        <v>-31.57899856567383</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>36.14986419677734</v>
+        <v>25.06703186035156</v>
       </c>
       <c r="B9" t="n">
-        <v>33.53231430053711</v>
+        <v>20.2921085357666</v>
       </c>
       <c r="C9" t="n">
-        <v>25.15301132202148</v>
+        <v>6.208176612854004</v>
       </c>
       <c r="D9" t="n">
-        <v>26.84366989135742</v>
+        <v>60.70149230957031</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.706831932067871</v>
+        <v>-20.94428634643555</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.655396938323975</v>
+        <v>-28.50214004516602</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33.52587509155273</v>
+        <v>22.96492576599121</v>
       </c>
       <c r="B10" t="n">
-        <v>30.05132675170898</v>
+        <v>24.59018135070801</v>
       </c>
       <c r="C10" t="n">
-        <v>23.70846557617188</v>
+        <v>6.06661319732666</v>
       </c>
       <c r="D10" t="n">
-        <v>23.54548263549805</v>
+        <v>64.85642242431641</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.523316860198975</v>
+        <v>-17.60261726379395</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.751362085342407</v>
+        <v>-23.99694061279297</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30.83016014099121</v>
+        <v>20.97357177734375</v>
       </c>
       <c r="B11" t="n">
-        <v>26.69569778442383</v>
+        <v>28.81008911132812</v>
       </c>
       <c r="C11" t="n">
-        <v>21.44862365722656</v>
+        <v>6.091399192810059</v>
       </c>
       <c r="D11" t="n">
-        <v>20.93741798400879</v>
+        <v>67.56721496582031</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.230974674224854</v>
+        <v>-14.01902389526367</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.751362085342407</v>
+        <v>-18.69109916687012</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>27.48011779785156</v>
+        <v>19.09612083435059</v>
       </c>
       <c r="B12" t="n">
-        <v>23.47845840454102</v>
+        <v>32.80991363525391</v>
       </c>
       <c r="C12" t="n">
-        <v>18.14480400085449</v>
+        <v>6.210812568664551</v>
       </c>
       <c r="D12" t="n">
-        <v>17.71946334838867</v>
+        <v>68.74497985839844</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.731164932250977</v>
+        <v>-10.53821086883545</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.998213529586792</v>
+        <v>-13.33330345153809</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>24.27348709106445</v>
+        <v>17.29391860961914</v>
       </c>
       <c r="B13" t="n">
-        <v>20.03205490112305</v>
+        <v>36.60146331787109</v>
       </c>
       <c r="C13" t="n">
-        <v>14.7271556854248</v>
+        <v>6.400748252868652</v>
       </c>
       <c r="D13" t="n">
-        <v>14.36955833435059</v>
+        <v>68.74497985839844</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.731164932250977</v>
+        <v>-6.851726531982422</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.137492418289185</v>
+        <v>-8.614945411682129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21.20764923095703</v>
+        <v>15.56513214111328</v>
       </c>
       <c r="B14" t="n">
-        <v>16.89798736572266</v>
+        <v>40.05607604980469</v>
       </c>
       <c r="C14" t="n">
-        <v>12.17469692230225</v>
+        <v>6.866751670837402</v>
       </c>
       <c r="D14" t="n">
-        <v>12.01897811889648</v>
+        <v>66.13102722167969</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.509981155395508</v>
+        <v>-3.15827488899231</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9340780377388</v>
+        <v>-4.596027374267578</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>18.61808776855469</v>
+        <v>13.95717620849609</v>
       </c>
       <c r="B15" t="n">
-        <v>14.01210975646973</v>
+        <v>43.06062316894531</v>
       </c>
       <c r="C15" t="n">
-        <v>10.53535842895508</v>
+        <v>7.166560173034668</v>
       </c>
       <c r="D15" t="n">
-        <v>10.21969795227051</v>
+        <v>62.86913299560547</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.126571655273438</v>
+        <v>0.3764146566390991</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.008119821548462</v>
+        <v>-1.416926860809326</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15.91241550445557</v>
+        <v>12.45777988433838</v>
       </c>
       <c r="B16" t="n">
-        <v>11.70247650146484</v>
+        <v>45.52234649658203</v>
       </c>
       <c r="C16" t="n">
-        <v>9.113540649414062</v>
+        <v>7.442133903503418</v>
       </c>
       <c r="D16" t="n">
-        <v>10.21969795227051</v>
+        <v>58.32412719726562</v>
       </c>
       <c r="E16" t="n">
-        <v>1.044344425201416</v>
+        <v>3.826287031173706</v>
       </c>
       <c r="F16" t="n">
-        <v>1.870403051376343</v>
+        <v>0.7584850788116455</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>13.55528831481934</v>
+        <v>11.01576709747314</v>
       </c>
       <c r="B17" t="n">
-        <v>9.093019485473633</v>
+        <v>47.39478302001953</v>
       </c>
       <c r="C17" t="n">
-        <v>9.113540649414062</v>
+        <v>7.875754356384277</v>
       </c>
       <c r="D17" t="n">
-        <v>8.251255989074707</v>
+        <v>52.74295806884766</v>
       </c>
       <c r="E17" t="n">
-        <v>3.963648319244385</v>
+        <v>7.03139591217041</v>
       </c>
       <c r="F17" t="n">
-        <v>4.126551151275635</v>
+        <v>0.7584850788116455</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11.39117240905762</v>
+        <v>9.655356407165527</v>
       </c>
       <c r="B18" t="n">
-        <v>6.172917366027832</v>
+        <v>48.63898468017578</v>
       </c>
       <c r="C18" t="n">
-        <v>8.081110954284668</v>
+        <v>8.337985038757324</v>
       </c>
       <c r="D18" t="n">
-        <v>7.652609825134277</v>
+        <v>46.47290802001953</v>
       </c>
       <c r="E18" t="n">
-        <v>5.757357597351074</v>
+        <v>9.949182510375977</v>
       </c>
       <c r="F18" t="n">
-        <v>6.082290649414062</v>
+        <v>2.632678031921387</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8.943806648254395</v>
+        <v>8.337827682495117</v>
       </c>
       <c r="B19" t="n">
-        <v>3.509794473648071</v>
+        <v>48.63898468017578</v>
       </c>
       <c r="C19" t="n">
-        <v>7.398894309997559</v>
+        <v>8.837948799133301</v>
       </c>
       <c r="D19" t="n">
-        <v>6.00563907623291</v>
+        <v>39.84944915771484</v>
       </c>
       <c r="E19" t="n">
-        <v>7.882859706878662</v>
+        <v>12.90453338623047</v>
       </c>
       <c r="F19" t="n">
-        <v>8.140724182128906</v>
+        <v>1.691698908805847</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.442889213562012</v>
+        <v>7.052600860595703</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6733092069625854</v>
+        <v>49.95652770996094</v>
       </c>
       <c r="C20" t="n">
-        <v>6.792315483093262</v>
+        <v>9.506702423095703</v>
       </c>
       <c r="D20" t="n">
-        <v>5.133227348327637</v>
+        <v>33.26680374145508</v>
       </c>
       <c r="E20" t="n">
-        <v>9.796755790710449</v>
+        <v>15.51477718353271</v>
       </c>
       <c r="F20" t="n">
-        <v>9.657716751098633</v>
+        <v>0.5702752470970154</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.326401710510254</v>
+        <v>5.817841529846191</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.891059160232544</v>
+        <v>49.53761672973633</v>
       </c>
       <c r="C21" t="n">
-        <v>6.924965858459473</v>
+        <v>10.16743659973145</v>
       </c>
       <c r="D21" t="n">
-        <v>4.647067070007324</v>
+        <v>27.19574737548828</v>
       </c>
       <c r="E21" t="n">
-        <v>12.50854873657227</v>
+        <v>17.77677726745605</v>
       </c>
       <c r="F21" t="n">
-        <v>11.47486686706543</v>
+        <v>-2.362781047821045</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.337639570236206</v>
+        <v>4.555767059326172</v>
       </c>
       <c r="B22" t="n">
-        <v>-4.330924034118652</v>
+        <v>48.81001663208008</v>
       </c>
       <c r="C22" t="n">
-        <v>7.187150001525879</v>
+        <v>11.02274322509766</v>
       </c>
       <c r="D22" t="n">
-        <v>4.193058967590332</v>
+        <v>22.02367782592773</v>
       </c>
       <c r="E22" t="n">
-        <v>13.99074554443359</v>
+        <v>19.75569152832031</v>
       </c>
       <c r="F22" t="n">
-        <v>12.76913642883301</v>
+        <v>-4.666743278503418</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8115451335906982</v>
+        <v>3.252302408218384</v>
       </c>
       <c r="B23" t="n">
-        <v>-6.450045585632324</v>
+        <v>47.93338775634766</v>
       </c>
       <c r="C23" t="n">
-        <v>9.165336608886719</v>
+        <v>12.08801651000977</v>
       </c>
       <c r="D23" t="n">
-        <v>4.679434776306152</v>
+        <v>17.9768009185791</v>
       </c>
       <c r="E23" t="n">
-        <v>13.99074554443359</v>
+        <v>21.24137306213379</v>
       </c>
       <c r="F23" t="n">
-        <v>14.12663269042969</v>
+        <v>-6.834555625915527</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.3781082630157471</v>
+        <v>1.943242430686951</v>
       </c>
       <c r="B24" t="n">
-        <v>-8.084795951843262</v>
+        <v>46.7183837890625</v>
       </c>
       <c r="C24" t="n">
-        <v>10.92358875274658</v>
+        <v>12.95054721832275</v>
       </c>
       <c r="D24" t="n">
-        <v>6.873908996582031</v>
+        <v>15.17640113830566</v>
       </c>
       <c r="E24" t="n">
-        <v>17.11462783813477</v>
+        <v>21.24137306213379</v>
       </c>
       <c r="F24" t="n">
-        <v>15.75180530548096</v>
+        <v>-8.716606140136719</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.3781082630157471</v>
+        <v>0.6822834014892578</v>
       </c>
       <c r="B25" t="n">
-        <v>-9.399258613586426</v>
+        <v>45.28078079223633</v>
       </c>
       <c r="C25" t="n">
-        <v>13.67278099060059</v>
+        <v>13.96225547790527</v>
       </c>
       <c r="D25" t="n">
-        <v>8.682025909423828</v>
+        <v>13.51709461212158</v>
       </c>
       <c r="E25" t="n">
-        <v>17.11462783813477</v>
+        <v>22.53598594665527</v>
       </c>
       <c r="F25" t="n">
-        <v>15.75180530548096</v>
+        <v>-10.75863552093506</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-2.066285371780396</v>
+        <v>-0.4820144176483154</v>
       </c>
       <c r="B26" t="n">
-        <v>-9.399258613586426</v>
+        <v>43.63511657714844</v>
       </c>
       <c r="C26" t="n">
-        <v>17.45349502563477</v>
+        <v>15.34576606750488</v>
       </c>
       <c r="D26" t="n">
-        <v>11.28199195861816</v>
+        <v>13.51709461212158</v>
       </c>
       <c r="E26" t="n">
-        <v>15.03251838684082</v>
+        <v>19.03292083740234</v>
       </c>
       <c r="F26" t="n">
-        <v>13.26672172546387</v>
+        <v>-13.33756637573242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1.963095903396606</v>
+        <v>-0.4820144176483154</v>
       </c>
       <c r="B27" t="n">
-        <v>-11.28663158416748</v>
+        <v>41.91912841796875</v>
       </c>
       <c r="C27" t="n">
-        <v>22.13356781005859</v>
+        <v>18.08556747436523</v>
       </c>
       <c r="D27" t="n">
-        <v>14.89642143249512</v>
+        <v>12.29221343994141</v>
       </c>
       <c r="E27" t="n">
-        <v>9.879104614257812</v>
+        <v>15.12204551696777</v>
       </c>
       <c r="F27" t="n">
-        <v>7.786394596099854</v>
+        <v>-16.04274559020996</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-1.149873018264771</v>
+        <v>-2.463157176971436</v>
       </c>
       <c r="B28" t="n">
-        <v>-10.34076976776123</v>
+        <v>39.10645294189453</v>
       </c>
       <c r="C28" t="n">
-        <v>27.4522819519043</v>
+        <v>20.10450172424316</v>
       </c>
       <c r="D28" t="n">
-        <v>19.279541015625</v>
+        <v>13.3902759552002</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03944301605224609</v>
+        <v>8.806999206542969</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.067414522171021</v>
+        <v>-18.1185188293457</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.23526930809021</v>
+        <v>-2.772935390472412</v>
       </c>
       <c r="B29" t="n">
-        <v>-6.999985694885254</v>
+        <v>37.53291320800781</v>
       </c>
       <c r="C29" t="n">
-        <v>32.75479507446289</v>
+        <v>23.12240982055664</v>
       </c>
       <c r="D29" t="n">
-        <v>24.33889007568359</v>
+        <v>14.5808687210083</v>
       </c>
       <c r="E29" t="n">
-        <v>-13.4971866607666</v>
+        <v>0.03297853469848633</v>
       </c>
       <c r="F29" t="n">
-        <v>-15.39165019989014</v>
+        <v>-18.1185188293457</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.048887252807617</v>
+        <v>-2.305858135223389</v>
       </c>
       <c r="B30" t="n">
-        <v>-4.514742851257324</v>
+        <v>35.73505401611328</v>
       </c>
       <c r="C30" t="n">
-        <v>38.166748046875</v>
+        <v>27.37308120727539</v>
       </c>
       <c r="D30" t="n">
-        <v>29.80432891845703</v>
+        <v>15.69131278991699</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.57899475097656</v>
+        <v>-10.11136436462402</v>
       </c>
       <c r="F30" t="n">
-        <v>-27.7527027130127</v>
+        <v>-19.11835289001465</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.368005752563477</v>
+        <v>0.4505420029163361</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.021048307418823</v>
+        <v>33.88131713867188</v>
       </c>
       <c r="C31" t="n">
-        <v>43.87571334838867</v>
+        <v>32.83070755004883</v>
       </c>
       <c r="D31" t="n">
-        <v>36.22944259643555</v>
+        <v>16.60233879089355</v>
       </c>
       <c r="E31" t="n">
-        <v>-37.09022521972656</v>
+        <v>-20.01838302612305</v>
       </c>
       <c r="F31" t="n">
-        <v>-34.58795166015625</v>
+        <v>-18.26802062988281</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8.734231948852539</v>
+        <v>2.833163261413574</v>
       </c>
       <c r="B32" t="n">
-        <v>3.144248485565186</v>
+        <v>31.96370697021484</v>
       </c>
       <c r="C32" t="n">
-        <v>50.41316986083984</v>
+        <v>39.22970581054688</v>
       </c>
       <c r="D32" t="n">
-        <v>43.18831634521484</v>
+        <v>17.20686912536621</v>
       </c>
       <c r="E32" t="n">
-        <v>-39.43273544311523</v>
+        <v>-28.27550315856934</v>
       </c>
       <c r="F32" t="n">
-        <v>-34.58795166015625</v>
+        <v>-14.97891998291016</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>12.36481285095215</v>
+        <v>6.156693458557129</v>
       </c>
       <c r="B33" t="n">
-        <v>7.419147491455078</v>
+        <v>29.8853874206543</v>
       </c>
       <c r="C33" t="n">
-        <v>56.36653137207031</v>
+        <v>46.13501358032227</v>
       </c>
       <c r="D33" t="n">
-        <v>49.37047576904297</v>
+        <v>17.61614036560059</v>
       </c>
       <c r="E33" t="n">
-        <v>-36.68920135498047</v>
+        <v>-34.02240371704102</v>
       </c>
       <c r="F33" t="n">
-        <v>-29.81257247924805</v>
+        <v>-12.2089900970459</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16.22490310668945</v>
+        <v>10.16307735443115</v>
       </c>
       <c r="B34" t="n">
-        <v>11.57141876220703</v>
+        <v>27.70682716369629</v>
       </c>
       <c r="C34" t="n">
-        <v>61.66806411743164</v>
+        <v>52.89369964599609</v>
       </c>
       <c r="D34" t="n">
-        <v>54.44131469726562</v>
+        <v>17.62384796142578</v>
       </c>
       <c r="E34" t="n">
-        <v>-32.16846466064453</v>
+        <v>-36.24627304077148</v>
       </c>
       <c r="F34" t="n">
-        <v>-24.09655570983887</v>
+        <v>-8.703221321105957</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>20.16555976867676</v>
+        <v>14.48533630371094</v>
       </c>
       <c r="B35" t="n">
-        <v>15.65355110168457</v>
+        <v>25.56332778930664</v>
       </c>
       <c r="C35" t="n">
-        <v>65.85800170898438</v>
+        <v>58.74322128295898</v>
       </c>
       <c r="D35" t="n">
-        <v>58.09013748168945</v>
+        <v>17.45480537414551</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.38971138000488</v>
+        <v>-34.74813842773438</v>
       </c>
       <c r="F35" t="n">
-        <v>-19.00048065185547</v>
+        <v>-4.986288070678711</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>23.98865699768066</v>
+        <v>18.8986930847168</v>
       </c>
       <c r="B36" t="n">
-        <v>19.76658248901367</v>
+        <v>23.51549530029297</v>
       </c>
       <c r="C36" t="n">
-        <v>68.343505859375</v>
+        <v>63.13233947753906</v>
       </c>
       <c r="D36" t="n">
-        <v>60.37748336791992</v>
+        <v>17.165771484375</v>
       </c>
       <c r="E36" t="n">
-        <v>-19.51993942260742</v>
+        <v>-29.98957824707031</v>
       </c>
       <c r="F36" t="n">
-        <v>-14.26598453521729</v>
+        <v>-1.525555849075317</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>27.62114715576172</v>
+        <v>23.20232391357422</v>
       </c>
       <c r="B37" t="n">
-        <v>23.89522933959961</v>
+        <v>21.57259559631348</v>
       </c>
       <c r="C37" t="n">
-        <v>68.343505859375</v>
+        <v>65.58123016357422</v>
       </c>
       <c r="D37" t="n">
-        <v>60.37748336791992</v>
+        <v>16.86799621582031</v>
       </c>
       <c r="E37" t="n">
-        <v>-13.13395500183105</v>
+        <v>-22.85551452636719</v>
       </c>
       <c r="F37" t="n">
-        <v>-9.283089637756348</v>
+        <v>1.673892855644226</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>30.76638984680176</v>
+        <v>27.19319152832031</v>
       </c>
       <c r="B38" t="n">
-        <v>27.3958740234375</v>
+        <v>19.75526237487793</v>
       </c>
       <c r="C38" t="n">
-        <v>67.98602294921875</v>
+        <v>65.58123016357422</v>
       </c>
       <c r="D38" t="n">
-        <v>59.44281005859375</v>
+        <v>16.59766960144043</v>
       </c>
       <c r="E38" t="n">
-        <v>-7.846927642822266</v>
+        <v>-14.83785343170166</v>
       </c>
       <c r="F38" t="n">
-        <v>-5.736914157867432</v>
+        <v>4.596801280975342</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>33.20371627807617</v>
+        <v>30.72454261779785</v>
       </c>
       <c r="B39" t="n">
-        <v>30.30306243896484</v>
+        <v>18.00577926635742</v>
       </c>
       <c r="C39" t="n">
-        <v>64.17863464355469</v>
+        <v>63.80149078369141</v>
       </c>
       <c r="D39" t="n">
-        <v>55.72671508789062</v>
+        <v>16.54480361938477</v>
       </c>
       <c r="E39" t="n">
-        <v>-4.178766250610352</v>
+        <v>-7.543094635009766</v>
       </c>
       <c r="F39" t="n">
-        <v>-4.029154300689697</v>
+        <v>7.46568775177002</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>35.16814422607422</v>
+        <v>33.69701766967773</v>
       </c>
       <c r="B40" t="n">
-        <v>32.60606384277344</v>
+        <v>16.28964424133301</v>
       </c>
       <c r="C40" t="n">
-        <v>58.12775421142578</v>
+        <v>59.67220687866211</v>
       </c>
       <c r="D40" t="n">
-        <v>50.16965484619141</v>
+        <v>16.65716552734375</v>
       </c>
       <c r="E40" t="n">
-        <v>-2.574187517166138</v>
+        <v>-1.927159786224365</v>
       </c>
       <c r="F40" t="n">
-        <v>-4.029154300689697</v>
+        <v>10.36937713623047</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>36.26432037353516</v>
+        <v>36.11415100097656</v>
       </c>
       <c r="B41" t="n">
-        <v>34.24253082275391</v>
+        <v>14.57549476623535</v>
       </c>
       <c r="C41" t="n">
-        <v>50.53098297119141</v>
+        <v>54.05804824829102</v>
       </c>
       <c r="D41" t="n">
-        <v>43.62101745605469</v>
+        <v>16.86530494689941</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.400446772575378</v>
+        <v>1.611829519271851</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.636609077453613</v>
+        <v>13.13621044158936</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>36.26432037353516</v>
+        <v>38.00875091552734</v>
       </c>
       <c r="B42" t="n">
-        <v>35.34080123901367</v>
+        <v>12.78725528717041</v>
       </c>
       <c r="C42" t="n">
-        <v>42.44945907592773</v>
+        <v>47.41257476806641</v>
       </c>
       <c r="D42" t="n">
-        <v>36.58418273925781</v>
+        <v>16.99119186401367</v>
       </c>
       <c r="E42" t="n">
-        <v>-3.909839630126953</v>
+        <v>3.11468505859375</v>
       </c>
       <c r="F42" t="n">
-        <v>-6.023280620574951</v>
+        <v>15.73775100708008</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>38.13521575927734</v>
+        <v>39.32276153564453</v>
       </c>
       <c r="B43" t="n">
-        <v>35.34080123901367</v>
+        <v>11.01942443847656</v>
       </c>
       <c r="C43" t="n">
-        <v>33.85428619384766</v>
+        <v>40.24509429931641</v>
       </c>
       <c r="D43" t="n">
-        <v>29.15476989746094</v>
+        <v>17.1173152923584</v>
       </c>
       <c r="E43" t="n">
-        <v>-7.625504016876221</v>
+        <v>3.11468505859375</v>
       </c>
       <c r="F43" t="n">
-        <v>-9.644932746887207</v>
+        <v>18.1793327331543</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>38.3146858215332</v>
+        <v>39.32276153564453</v>
       </c>
       <c r="B44" t="n">
-        <v>36.83556747436523</v>
+        <v>9.191490173339844</v>
       </c>
       <c r="C44" t="n">
-        <v>26.0289421081543</v>
+        <v>32.91189193725586</v>
       </c>
       <c r="D44" t="n">
-        <v>22.18782234191895</v>
+        <v>17.32217407226562</v>
       </c>
       <c r="E44" t="n">
-        <v>-11.30874919891357</v>
+        <v>1.500622987747192</v>
       </c>
       <c r="F44" t="n">
-        <v>-13.23759078979492</v>
+        <v>20.46366500854492</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>38.10987091064453</v>
+        <v>41.02770614624023</v>
       </c>
       <c r="B45" t="n">
-        <v>36.86537551879883</v>
+        <v>7.41731595993042</v>
       </c>
       <c r="C45" t="n">
-        <v>18.77412223815918</v>
+        <v>25.89204406738281</v>
       </c>
       <c r="D45" t="n">
-        <v>16.0860595703125</v>
+        <v>17.47475814819336</v>
       </c>
       <c r="E45" t="n">
-        <v>-12.46910095214844</v>
+        <v>-0.738064169883728</v>
       </c>
       <c r="F45" t="n">
-        <v>-14.84879207611084</v>
+        <v>22.56780624389648</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>36.86332702636719</v>
+        <v>40.96168518066406</v>
       </c>
       <c r="B46" t="n">
-        <v>36.31966018676758</v>
+        <v>5.643429756164551</v>
       </c>
       <c r="C46" t="n">
-        <v>12.61578941345215</v>
+        <v>19.51231002807617</v>
       </c>
       <c r="D46" t="n">
-        <v>10.55374336242676</v>
+        <v>17.63446998596191</v>
       </c>
       <c r="E46" t="n">
-        <v>-11.09523582458496</v>
+        <v>-3.463830232620239</v>
       </c>
       <c r="F46" t="n">
-        <v>-14.84879207611084</v>
+        <v>24.47380447387695</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>37.30872344970703</v>
+        <v>40.83434677124023</v>
       </c>
       <c r="B47" t="n">
-        <v>36.75170516967773</v>
+        <v>4.015604019165039</v>
       </c>
       <c r="C47" t="n">
-        <v>9.021585464477539</v>
+        <v>14.11698341369629</v>
       </c>
       <c r="D47" t="n">
-        <v>7.176564693450928</v>
+        <v>17.77204895019531</v>
       </c>
       <c r="E47" t="n">
-        <v>-9.773141860961914</v>
+        <v>-6.487749099731445</v>
       </c>
       <c r="F47" t="n">
-        <v>-15.04688930511475</v>
+        <v>25.94959259033203</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>38.75217819213867</v>
+        <v>40.37828826904297</v>
       </c>
       <c r="B48" t="n">
-        <v>38.35022735595703</v>
+        <v>2.492274761199951</v>
       </c>
       <c r="C48" t="n">
-        <v>6.961828708648682</v>
+        <v>9.749759674072266</v>
       </c>
       <c r="D48" t="n">
-        <v>5.051433563232422</v>
+        <v>18.17867660522461</v>
       </c>
       <c r="E48" t="n">
-        <v>-9.773141860961914</v>
+        <v>-9.937459945678711</v>
       </c>
       <c r="F48" t="n">
-        <v>-14.01073551177979</v>
+        <v>27.06309127807617</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>38.75217819213867</v>
+        <v>37.1129150390625</v>
       </c>
       <c r="B49" t="n">
-        <v>38.35022735595703</v>
+        <v>2.492274761199951</v>
       </c>
       <c r="C49" t="n">
-        <v>6.961828708648682</v>
+        <v>6.924590587615967</v>
       </c>
       <c r="D49" t="n">
-        <v>5.051433563232422</v>
+        <v>18.9540901184082</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.42297649383545</v>
+        <v>-11.9429988861084</v>
       </c>
       <c r="F49" t="n">
-        <v>-14.01073551177979</v>
+        <v>27.06309127807617</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>39.77344512939453</v>
+        <v>33.48209762573242</v>
       </c>
       <c r="B50" t="n">
-        <v>38.61471557617188</v>
+        <v>0.7681835293769836</v>
       </c>
       <c r="C50" t="n">
-        <v>10.02256870269775</v>
+        <v>5.059313774108887</v>
       </c>
       <c r="D50" t="n">
-        <v>6.781563758850098</v>
+        <v>20.19719886779785</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.70370101928711</v>
+        <v>-13.11881637573242</v>
       </c>
       <c r="F50" t="n">
-        <v>-15.26133251190186</v>
+        <v>27.29296684265137</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>40.68575286865234</v>
+        <v>29.20471954345703</v>
       </c>
       <c r="B51" t="n">
-        <v>40.66518402099609</v>
+        <v>-0.6516429781913757</v>
       </c>
       <c r="C51" t="n">
-        <v>11.52710151672363</v>
+        <v>5.059313774108887</v>
       </c>
       <c r="D51" t="n">
-        <v>8.947792053222656</v>
+        <v>23.75434494018555</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.70370101928711</v>
+        <v>-13.11881637573242</v>
       </c>
       <c r="F51" t="n">
-        <v>-17.25138473510742</v>
+        <v>21.17959213256836</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>40.68575286865234</v>
+        <v>34.90985870361328</v>
       </c>
       <c r="B52" t="n">
-        <v>40.66518402099609</v>
+        <v>-0.8300430178642273</v>
       </c>
       <c r="C52" t="n">
-        <v>12.66285610198975</v>
+        <v>8.97508430480957</v>
       </c>
       <c r="D52" t="n">
-        <v>11.86462306976318</v>
+        <v>23.75434494018555</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.74227714538574</v>
+        <v>-16.20480346679688</v>
       </c>
       <c r="F52" t="n">
-        <v>-18.28484725952148</v>
+        <v>13.02003765106201</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>42.6122932434082</v>
+        <v>37.46833801269531</v>
       </c>
       <c r="B53" t="n">
-        <v>41.83734512329102</v>
+        <v>0.5121563076972961</v>
       </c>
       <c r="C53" t="n">
-        <v>14.8226203918457</v>
+        <v>8.97508430480957</v>
       </c>
       <c r="D53" t="n">
-        <v>15.27124214172363</v>
+        <v>24.43161773681641</v>
       </c>
       <c r="E53" t="n">
-        <v>-23.30271911621094</v>
+        <v>-18.61148643493652</v>
       </c>
       <c r="F53" t="n">
-        <v>-22.9711799621582</v>
+        <v>4.419319152832031</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43.10225296020508</v>
+        <v>37.46833801269531</v>
       </c>
       <c r="B54" t="n">
-        <v>43.0609016418457</v>
+        <v>1.232640981674194</v>
       </c>
       <c r="C54" t="n">
-        <v>18.2497444152832</v>
+        <v>8.681193351745605</v>
       </c>
       <c r="D54" t="n">
-        <v>19.86219787597656</v>
+        <v>27.17897987365723</v>
       </c>
       <c r="E54" t="n">
-        <v>-25.69938087463379</v>
+        <v>-21.11659049987793</v>
       </c>
       <c r="F54" t="n">
-        <v>-24.59571838378906</v>
+        <v>-5.037569522857666</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>42.90090560913086</v>
+        <v>35.63373184204102</v>
       </c>
       <c r="B55" t="n">
-        <v>43.64924621582031</v>
+        <v>3.395420551300049</v>
       </c>
       <c r="C55" t="n">
-        <v>21.59108924865723</v>
+        <v>6.999451637268066</v>
       </c>
       <c r="D55" t="n">
-        <v>23.53731727600098</v>
+        <v>31.16674041748047</v>
       </c>
       <c r="E55" t="n">
-        <v>-25.69938087463379</v>
+        <v>-23.80517196655273</v>
       </c>
       <c r="F55" t="n">
-        <v>-23.21413040161133</v>
+        <v>-14.69559669494629</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43.2487907409668</v>
+        <v>33.47289657592773</v>
       </c>
       <c r="B56" t="n">
-        <v>41.80532836914062</v>
+        <v>6.063077926635742</v>
       </c>
       <c r="C56" t="n">
-        <v>24.3764533996582</v>
+        <v>5.655413627624512</v>
       </c>
       <c r="D56" t="n">
-        <v>25.67749404907227</v>
+        <v>36.52277374267578</v>
       </c>
       <c r="E56" t="n">
-        <v>-21.43291282653809</v>
+        <v>-25.64779663085938</v>
       </c>
       <c r="F56" t="n">
-        <v>-20.52190208435059</v>
+        <v>-23.2824592590332</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>42.39955139160156</v>
+        <v>31.23038482666016</v>
       </c>
       <c r="B57" t="n">
-        <v>40.27899169921875</v>
+        <v>9.098983764648438</v>
       </c>
       <c r="C57" t="n">
-        <v>26.27562522888184</v>
+        <v>5.720791816711426</v>
       </c>
       <c r="D57" t="n">
-        <v>27.03002738952637</v>
+        <v>42.88066101074219</v>
       </c>
       <c r="E57" t="n">
-        <v>-17.20279502868652</v>
+        <v>-25.64779663085938</v>
       </c>
       <c r="F57" t="n">
-        <v>-15.70453262329102</v>
+        <v>-29.15632820129395</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>41.12610626220703</v>
+        <v>29.10848236083984</v>
       </c>
       <c r="B58" t="n">
-        <v>38.32182312011719</v>
+        <v>12.53224754333496</v>
       </c>
       <c r="C58" t="n">
-        <v>26.27562522888184</v>
+        <v>6.245749473571777</v>
       </c>
       <c r="D58" t="n">
-        <v>27.03002738952637</v>
+        <v>49.55927276611328</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.48452854156494</v>
+        <v>-25.48382568359375</v>
       </c>
       <c r="F58" t="n">
-        <v>-12.15933513641357</v>
+        <v>-31.82662963867188</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>37.90012359619141</v>
+        <v>27.03278350830078</v>
       </c>
       <c r="B59" t="n">
-        <v>36.15408325195312</v>
+        <v>16.37718963623047</v>
       </c>
       <c r="C59" t="n">
-        <v>28.19815063476562</v>
+        <v>6.598118782043457</v>
       </c>
       <c r="D59" t="n">
-        <v>28.01763534545898</v>
+        <v>55.81587219238281</v>
       </c>
       <c r="E59" t="n">
-        <v>-10.25474739074707</v>
+        <v>-23.47402954101562</v>
       </c>
       <c r="F59" t="n">
-        <v>-7.889891624450684</v>
+        <v>-31.82662963867188</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>35.7753791809082</v>
+        <v>24.90581130981445</v>
       </c>
       <c r="B60" t="n">
-        <v>33.6383171081543</v>
+        <v>20.55658531188965</v>
       </c>
       <c r="C60" t="n">
-        <v>25.56325912475586</v>
+        <v>6.499077796936035</v>
       </c>
       <c r="D60" t="n">
-        <v>26.06172752380371</v>
+        <v>61.11080932617188</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.90050220489502</v>
+        <v>-20.71270179748535</v>
       </c>
       <c r="F60" t="n">
-        <v>-4.548234462738037</v>
+        <v>-28.66383361816406</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>33.18400192260742</v>
+        <v>22.76593017578125</v>
       </c>
       <c r="B61" t="n">
-        <v>30.3528938293457</v>
+        <v>24.84593391418457</v>
       </c>
       <c r="C61" t="n">
-        <v>23.97193145751953</v>
+        <v>6.214919090270996</v>
       </c>
       <c r="D61" t="n">
-        <v>24.2373161315918</v>
+        <v>65.12510681152344</v>
       </c>
       <c r="E61" t="n">
-        <v>-4.751917839050293</v>
+        <v>-17.36292839050293</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.61829400062561</v>
+        <v>-24.24899482727051</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>30.53179931640625</v>
+        <v>20.73737335205078</v>
       </c>
       <c r="B62" t="n">
-        <v>26.93169975280762</v>
+        <v>29.02149200439453</v>
       </c>
       <c r="C62" t="n">
-        <v>21.75406265258789</v>
+        <v>6.051730155944824</v>
       </c>
       <c r="D62" t="n">
-        <v>21.49360656738281</v>
+        <v>67.74858856201172</v>
       </c>
       <c r="E62" t="n">
-        <v>-3.509409189224243</v>
+        <v>-13.78135204315186</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.61829400062561</v>
+        <v>-19.0710563659668</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>27.43438720703125</v>
+        <v>18.87207221984863</v>
       </c>
       <c r="B63" t="n">
-        <v>23.65109252929688</v>
+        <v>32.94008636474609</v>
       </c>
       <c r="C63" t="n">
-        <v>18.56914901733398</v>
+        <v>6.093375205993652</v>
       </c>
       <c r="D63" t="n">
-        <v>18.20521545410156</v>
+        <v>68.93359375</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.988357424736023</v>
+        <v>-10.32279682159424</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.733453273773193</v>
+        <v>-13.83141326904297</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>24.22840309143066</v>
+        <v>17.10274314880371</v>
       </c>
       <c r="B64" t="n">
-        <v>20.21803092956543</v>
+        <v>36.59248352050781</v>
       </c>
       <c r="C64" t="n">
-        <v>14.98093128204346</v>
+        <v>6.318024635314941</v>
       </c>
       <c r="D64" t="n">
-        <v>14.68132400512695</v>
+        <v>68.93359375</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.988357424736023</v>
+        <v>-6.703734874725342</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8666670918464661</v>
+        <v>-9.189981460571289</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>21.08848190307617</v>
+        <v>15.40848636627197</v>
       </c>
       <c r="B65" t="n">
-        <v>17.10071563720703</v>
+        <v>39.89067840576172</v>
       </c>
       <c r="C65" t="n">
-        <v>12.27834320068359</v>
+        <v>7.026299476623535</v>
       </c>
       <c r="D65" t="n">
-        <v>12.04806327819824</v>
+        <v>66.4307861328125</v>
       </c>
       <c r="E65" t="n">
-        <v>-2.596117496490479</v>
+        <v>-3.058074235916138</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7474640011787415</v>
+        <v>-5.216747760772705</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>18.50100517272949</v>
+        <v>13.7979154586792</v>
       </c>
       <c r="B66" t="n">
-        <v>14.32904815673828</v>
+        <v>42.78926467895508</v>
       </c>
       <c r="C66" t="n">
-        <v>10.6072998046875</v>
+        <v>7.593014717102051</v>
       </c>
       <c r="D66" t="n">
-        <v>10.22728729248047</v>
+        <v>63.19523620605469</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.37415599822998</v>
+        <v>0.4462207555770874</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.873932123184204</v>
+        <v>-2.029695987701416</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>16.03118705749512</v>
+        <v>12.28003978729248</v>
       </c>
       <c r="B67" t="n">
-        <v>12.01594066619873</v>
+        <v>45.23133850097656</v>
       </c>
       <c r="C67" t="n">
-        <v>9.359992980957031</v>
+        <v>7.923724174499512</v>
       </c>
       <c r="D67" t="n">
-        <v>9.221508026123047</v>
+        <v>58.67758178710938</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6944971084594727</v>
+        <v>3.870595216751099</v>
       </c>
       <c r="F67" t="n">
-        <v>1.914856433868408</v>
+        <v>0.1874725818634033</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>13.70753860473633</v>
+        <v>10.85121917724609</v>
       </c>
       <c r="B68" t="n">
-        <v>9.597973823547363</v>
+        <v>47.13332748413086</v>
       </c>
       <c r="C68" t="n">
-        <v>9.359992980957031</v>
+        <v>8.242314338684082</v>
       </c>
       <c r="D68" t="n">
-        <v>9.221508026123047</v>
+        <v>53.13420486450195</v>
       </c>
       <c r="E68" t="n">
-        <v>3.510019063949585</v>
+        <v>7.086701393127441</v>
       </c>
       <c r="F68" t="n">
-        <v>4.1702561378479</v>
+        <v>1.21846878528595</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11.57608032226562</v>
+        <v>9.516363143920898</v>
       </c>
       <c r="B69" t="n">
-        <v>6.802403450012207</v>
+        <v>48.3996467590332</v>
       </c>
       <c r="C69" t="n">
-        <v>8.139695167541504</v>
+        <v>8.544394493103027</v>
       </c>
       <c r="D69" t="n">
-        <v>7.875250816345215</v>
+        <v>46.87995147705078</v>
       </c>
       <c r="E69" t="n">
-        <v>5.257225513458252</v>
+        <v>9.986452102661133</v>
       </c>
       <c r="F69" t="n">
-        <v>6.095952033996582</v>
+        <v>1.21846878528595</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9.271982192993164</v>
+        <v>8.2381591796875</v>
       </c>
       <c r="B70" t="n">
-        <v>4.101949691772461</v>
+        <v>48.3996467590332</v>
       </c>
       <c r="C70" t="n">
-        <v>7.674189567565918</v>
+        <v>8.839850425720215</v>
       </c>
       <c r="D70" t="n">
-        <v>6.507437705993652</v>
+        <v>40.24834823608398</v>
       </c>
       <c r="E70" t="n">
-        <v>7.373872756958008</v>
+        <v>12.86252975463867</v>
       </c>
       <c r="F70" t="n">
-        <v>8.091982841491699</v>
+        <v>1.315507292747498</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6.875166893005371</v>
+        <v>7.006791114807129</v>
       </c>
       <c r="B71" t="n">
-        <v>1.366135358810425</v>
+        <v>49.63223648071289</v>
       </c>
       <c r="C71" t="n">
-        <v>7.010050773620605</v>
+        <v>9.375372886657715</v>
       </c>
       <c r="D71" t="n">
-        <v>5.535731315612793</v>
+        <v>33.6636962890625</v>
       </c>
       <c r="E71" t="n">
-        <v>9.288966178894043</v>
+        <v>15.46139335632324</v>
       </c>
       <c r="F71" t="n">
-        <v>9.682794570922852</v>
+        <v>0.1210812851786613</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4.637442588806152</v>
+        <v>5.826519012451172</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.163535952568054</v>
+        <v>49.08969497680664</v>
       </c>
       <c r="C72" t="n">
-        <v>6.915535926818848</v>
+        <v>10.01268768310547</v>
       </c>
       <c r="D72" t="n">
-        <v>4.942755699157715</v>
+        <v>27.56120300292969</v>
       </c>
       <c r="E72" t="n">
-        <v>11.89104270935059</v>
+        <v>17.68411254882812</v>
       </c>
       <c r="F72" t="n">
-        <v>11.53543472290039</v>
+        <v>-2.710872650146484</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.641373634338379</v>
+        <v>4.661136627197266</v>
       </c>
       <c r="B73" t="n">
-        <v>-3.591178178787231</v>
+        <v>48.24131774902344</v>
       </c>
       <c r="C73" t="n">
-        <v>7.181118965148926</v>
+        <v>10.91699695587158</v>
       </c>
       <c r="D73" t="n">
-        <v>4.602608680725098</v>
+        <v>22.33499908447266</v>
       </c>
       <c r="E73" t="n">
-        <v>13.41666316986084</v>
+        <v>19.58510971069336</v>
       </c>
       <c r="F73" t="n">
-        <v>12.86787605285645</v>
+        <v>-4.92434024810791</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.015471339225769</v>
+        <v>3.457318544387817</v>
       </c>
       <c r="B74" t="n">
-        <v>-5.700405120849609</v>
+        <v>47.25424194335938</v>
       </c>
       <c r="C74" t="n">
-        <v>8.11855411529541</v>
+        <v>12.1410961151123</v>
       </c>
       <c r="D74" t="n">
-        <v>4.878355979919434</v>
+        <v>18.25809860229492</v>
       </c>
       <c r="E74" t="n">
-        <v>13.41666316986084</v>
+        <v>21.0185432434082</v>
       </c>
       <c r="F74" t="n">
-        <v>14.13225173950195</v>
+        <v>-7.200025081634521</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.2276250720024109</v>
+        <v>2.2115478515625</v>
       </c>
       <c r="B75" t="n">
-        <v>-7.317376613616943</v>
+        <v>46.07936096191406</v>
       </c>
       <c r="C75" t="n">
-        <v>11.23948860168457</v>
+        <v>13.17320442199707</v>
       </c>
       <c r="D75" t="n">
-        <v>7.038944244384766</v>
+        <v>15.43756675720215</v>
       </c>
       <c r="E75" t="n">
-        <v>16.26226425170898</v>
+        <v>21.0185432434082</v>
       </c>
       <c r="F75" t="n">
-        <v>15.67125988006592</v>
+        <v>-9.133323669433594</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.2276250720024109</v>
+        <v>0.9869205951690674</v>
       </c>
       <c r="B76" t="n">
-        <v>-8.635255813598633</v>
+        <v>44.76841354370117</v>
       </c>
       <c r="C76" t="n">
-        <v>13.66035556793213</v>
+        <v>14.11624145507812</v>
       </c>
       <c r="D76" t="n">
-        <v>8.906749725341797</v>
+        <v>13.78428745269775</v>
       </c>
       <c r="E76" t="n">
-        <v>16.26226425170898</v>
+        <v>22.34938430786133</v>
       </c>
       <c r="F76" t="n">
-        <v>15.67125988006592</v>
+        <v>-11.08286666870117</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-1.834281206130981</v>
+        <v>-0.138367772102356</v>
       </c>
       <c r="B77" t="n">
-        <v>-8.635255813598633</v>
+        <v>43.28584671020508</v>
       </c>
       <c r="C77" t="n">
-        <v>17.18304061889648</v>
+        <v>15.36093139648438</v>
       </c>
       <c r="D77" t="n">
-        <v>11.56804275512695</v>
+        <v>13.78428745269775</v>
       </c>
       <c r="E77" t="n">
-        <v>14.20225524902344</v>
+        <v>19.03038215637207</v>
       </c>
       <c r="F77" t="n">
-        <v>13.19903945922852</v>
+        <v>-13.53519916534424</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-1.434132814407349</v>
+        <v>-0.138367772102356</v>
       </c>
       <c r="B78" t="n">
-        <v>-10.49306392669678</v>
+        <v>41.6516227722168</v>
       </c>
       <c r="C78" t="n">
-        <v>21.72076034545898</v>
+        <v>18.094482421875</v>
       </c>
       <c r="D78" t="n">
-        <v>15.21556377410889</v>
+        <v>12.53866004943848</v>
       </c>
       <c r="E78" t="n">
-        <v>9.131161689758301</v>
+        <v>15.20143699645996</v>
       </c>
       <c r="F78" t="n">
-        <v>7.688227653503418</v>
+        <v>-16.27766418457031</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.5206711292266846</v>
+        <v>-2.056811809539795</v>
       </c>
       <c r="B79" t="n">
-        <v>-9.94166088104248</v>
+        <v>39.91290664672852</v>
       </c>
       <c r="C79" t="n">
-        <v>27.0381908416748</v>
+        <v>19.95847702026367</v>
       </c>
       <c r="D79" t="n">
-        <v>19.70011329650879</v>
+        <v>13.65076160430908</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.4723963737487793</v>
+        <v>8.993255615234375</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.15047550201416</v>
+        <v>-18.52480697631836</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.067715406417847</v>
+        <v>-2.463531017303467</v>
       </c>
       <c r="B80" t="n">
-        <v>-6.661995887756348</v>
+        <v>36.98894500732422</v>
       </c>
       <c r="C80" t="n">
-        <v>32.48076629638672</v>
+        <v>22.70664978027344</v>
       </c>
       <c r="D80" t="n">
-        <v>24.84615325927734</v>
+        <v>15.00003051757812</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.70791721343994</v>
+        <v>0.2526731491088867</v>
       </c>
       <c r="F80" t="n">
-        <v>-15.50449752807617</v>
+        <v>-18.52480697631836</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4.240241527557373</v>
+        <v>-2.167487621307373</v>
       </c>
       <c r="B81" t="n">
-        <v>-4.146475791931152</v>
+        <v>35.45210266113281</v>
       </c>
       <c r="C81" t="n">
-        <v>37.93508148193359</v>
+        <v>26.75701141357422</v>
       </c>
       <c r="D81" t="n">
-        <v>30.2301139831543</v>
+        <v>16.24438667297363</v>
       </c>
       <c r="E81" t="n">
-        <v>-27.68202781677246</v>
+        <v>-9.907760620117188</v>
       </c>
       <c r="F81" t="n">
-        <v>-27.77815246582031</v>
+        <v>-19.84600830078125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>6.315371513366699</v>
+        <v>0.5207371711730957</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.732043981552124</v>
+        <v>33.71080017089844</v>
       </c>
       <c r="C82" t="n">
-        <v>43.67733001708984</v>
+        <v>32.19944000244141</v>
       </c>
       <c r="D82" t="n">
-        <v>36.36795806884766</v>
+        <v>17.20528221130371</v>
       </c>
       <c r="E82" t="n">
-        <v>-37.16559982299805</v>
+        <v>-19.76841354370117</v>
       </c>
       <c r="F82" t="n">
-        <v>-34.49052047729492</v>
+        <v>-18.46139526367188</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9.453044891357422</v>
+        <v>2.964873790740967</v>
       </c>
       <c r="B83" t="n">
-        <v>3.374051094055176</v>
+        <v>31.87277221679688</v>
       </c>
       <c r="C83" t="n">
-        <v>50.10531616210938</v>
+        <v>38.70386123657227</v>
       </c>
       <c r="D83" t="n">
-        <v>43.08189010620117</v>
+        <v>17.83364105224609</v>
       </c>
       <c r="E83" t="n">
-        <v>-39.47224044799805</v>
+        <v>-27.93011474609375</v>
       </c>
       <c r="F83" t="n">
-        <v>-34.49052047729492</v>
+        <v>-15.05108451843262</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>13.04876613616943</v>
+        <v>6.356266021728516</v>
       </c>
       <c r="B84" t="n">
-        <v>7.557318687438965</v>
+        <v>29.87665176391602</v>
       </c>
       <c r="C84" t="n">
-        <v>56.08256912231445</v>
+        <v>45.74678802490234</v>
       </c>
       <c r="D84" t="n">
-        <v>49.12682723999023</v>
+        <v>18.13985252380371</v>
       </c>
       <c r="E84" t="n">
-        <v>-36.82264709472656</v>
+        <v>-33.60627746582031</v>
       </c>
       <c r="F84" t="n">
-        <v>-29.76927185058594</v>
+        <v>-12.33411026000977</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>16.84780693054199</v>
+        <v>10.42699337005615</v>
       </c>
       <c r="B85" t="n">
-        <v>11.7138557434082</v>
+        <v>27.72368240356445</v>
       </c>
       <c r="C85" t="n">
-        <v>61.21707153320312</v>
+        <v>52.67650604248047</v>
       </c>
       <c r="D85" t="n">
-        <v>54.08133697509766</v>
+        <v>18.0222225189209</v>
       </c>
       <c r="E85" t="n">
-        <v>-32.3266487121582</v>
+        <v>-35.82566452026367</v>
       </c>
       <c r="F85" t="n">
-        <v>-24.27242660522461</v>
+        <v>-8.860946655273438</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>20.70339584350586</v>
+        <v>14.80838966369629</v>
       </c>
       <c r="B86" t="n">
-        <v>15.74690914154053</v>
+        <v>25.54379653930664</v>
       </c>
       <c r="C86" t="n">
-        <v>65.35466003417969</v>
+        <v>58.70867538452148</v>
       </c>
       <c r="D86" t="n">
-        <v>57.67416000366211</v>
+        <v>17.64863967895508</v>
       </c>
       <c r="E86" t="n">
-        <v>-25.76034927368164</v>
+        <v>-34.30975341796875</v>
       </c>
       <c r="F86" t="n">
-        <v>-19.20282173156738</v>
+        <v>-5.170386791229248</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>24.44618225097656</v>
+        <v>19.18778991699219</v>
       </c>
       <c r="B87" t="n">
-        <v>19.83683395385742</v>
+        <v>23.47650337219238</v>
       </c>
       <c r="C87" t="n">
-        <v>67.99526977539062</v>
+        <v>63.1976318359375</v>
       </c>
       <c r="D87" t="n">
-        <v>59.98846817016602</v>
+        <v>17.19977569580078</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.90871047973633</v>
+        <v>-29.5731143951416</v>
       </c>
       <c r="F87" t="n">
-        <v>-14.57751941680908</v>
+        <v>-1.731120347976685</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>27.99499893188477</v>
+        <v>23.35651397705078</v>
       </c>
       <c r="B88" t="n">
-        <v>23.94219589233398</v>
+        <v>21.57065963745117</v>
       </c>
       <c r="C88" t="n">
-        <v>67.99526977539062</v>
+        <v>65.66364288330078</v>
       </c>
       <c r="D88" t="n">
-        <v>59.98846817016602</v>
+        <v>16.78539848327637</v>
       </c>
       <c r="E88" t="n">
-        <v>-13.70100402832031</v>
+        <v>-22.57629203796387</v>
       </c>
       <c r="F88" t="n">
-        <v>-9.688940048217773</v>
+        <v>1.398959994316101</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>31.07511711120605</v>
+        <v>27.17976760864258</v>
       </c>
       <c r="B89" t="n">
-        <v>27.44423675537109</v>
+        <v>19.83392333984375</v>
       </c>
       <c r="C89" t="n">
-        <v>68.06266784667969</v>
+        <v>65.66364288330078</v>
       </c>
       <c r="D89" t="n">
-        <v>59.79164886474609</v>
+        <v>16.44946479797363</v>
       </c>
       <c r="E89" t="n">
-        <v>-8.38218879699707</v>
+        <v>-14.73591041564941</v>
       </c>
       <c r="F89" t="n">
-        <v>-6.106120109558105</v>
+        <v>4.259973526000977</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>33.47642135620117</v>
+        <v>30.60573387145996</v>
       </c>
       <c r="B90" t="n">
-        <v>30.27668571472168</v>
+        <v>18.18839263916016</v>
       </c>
       <c r="C90" t="n">
-        <v>64.2408447265625</v>
+        <v>63.86625671386719</v>
       </c>
       <c r="D90" t="n">
-        <v>56.11636352539062</v>
+        <v>16.27525901794434</v>
       </c>
       <c r="E90" t="n">
-        <v>-4.663537502288818</v>
+        <v>-7.518402099609375</v>
       </c>
       <c r="F90" t="n">
-        <v>-4.388947486877441</v>
+        <v>7.066533088684082</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>35.33666229248047</v>
+        <v>33.56505584716797</v>
       </c>
       <c r="B91" t="n">
-        <v>32.52172470092773</v>
+        <v>16.57383346557617</v>
       </c>
       <c r="C91" t="n">
-        <v>58.2125244140625</v>
+        <v>59.65359497070312</v>
       </c>
       <c r="D91" t="n">
-        <v>50.51465606689453</v>
+        <v>16.30636596679688</v>
       </c>
       <c r="E91" t="n">
-        <v>-3.040893077850342</v>
+        <v>-1.868484020233154</v>
       </c>
       <c r="F91" t="n">
-        <v>-4.388947486877441</v>
+        <v>9.936294555664062</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>36.33880615234375</v>
+        <v>36.00234985351562</v>
       </c>
       <c r="B92" t="n">
-        <v>34.11241149902344</v>
+        <v>14.94454956054688</v>
       </c>
       <c r="C92" t="n">
-        <v>50.48027038574219</v>
+        <v>53.88174438476562</v>
       </c>
       <c r="D92" t="n">
-        <v>43.72486114501953</v>
+        <v>16.53640937805176</v>
       </c>
       <c r="E92" t="n">
-        <v>-1.891271591186523</v>
+        <v>1.782232522964478</v>
       </c>
       <c r="F92" t="n">
-        <v>-4.025839805603027</v>
+        <v>12.72775363922119</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>36.33880615234375</v>
+        <v>37.91727447509766</v>
       </c>
       <c r="B93" t="n">
-        <v>35.16619873046875</v>
+        <v>13.21626567840576</v>
       </c>
       <c r="C93" t="n">
-        <v>42.09970474243164</v>
+        <v>47.08600234985352</v>
       </c>
       <c r="D93" t="n">
-        <v>36.46338272094727</v>
+        <v>16.79938316345215</v>
       </c>
       <c r="E93" t="n">
-        <v>-4.535606384277344</v>
+        <v>3.374588012695312</v>
       </c>
       <c r="F93" t="n">
-        <v>-6.436481952667236</v>
+        <v>15.37094879150391</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>37.92263031005859</v>
+        <v>39.23957824707031</v>
       </c>
       <c r="B94" t="n">
-        <v>35.16619873046875</v>
+        <v>11.45101356506348</v>
       </c>
       <c r="C94" t="n">
-        <v>33.60562515258789</v>
+        <v>39.83831024169922</v>
       </c>
       <c r="D94" t="n">
-        <v>28.96447372436523</v>
+        <v>17.00959968566895</v>
       </c>
       <c r="E94" t="n">
-        <v>-8.352697372436523</v>
+        <v>3.374588012695312</v>
       </c>
       <c r="F94" t="n">
-        <v>-10.25032043457031</v>
+        <v>17.83373260498047</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>38.28175735473633</v>
+        <v>39.23957824707031</v>
       </c>
       <c r="B95" t="n">
-        <v>36.56544876098633</v>
+        <v>9.558357238769531</v>
       </c>
       <c r="C95" t="n">
-        <v>25.84748840332031</v>
+        <v>32.56462478637695</v>
       </c>
       <c r="D95" t="n">
-        <v>22.14958381652832</v>
+        <v>17.27337074279785</v>
       </c>
       <c r="E95" t="n">
-        <v>-11.85380172729492</v>
+        <v>1.667595148086548</v>
       </c>
       <c r="F95" t="n">
-        <v>-13.59078598022461</v>
+        <v>20.18602752685547</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>38.01015090942383</v>
+        <v>40.8838005065918</v>
       </c>
       <c r="B96" t="n">
-        <v>36.57831954956055</v>
+        <v>7.657811641693115</v>
       </c>
       <c r="C96" t="n">
-        <v>18.80880737304688</v>
+        <v>25.69969367980957</v>
       </c>
       <c r="D96" t="n">
-        <v>16.32609939575195</v>
+        <v>17.47379302978516</v>
       </c>
       <c r="E96" t="n">
-        <v>-11.85380172729492</v>
+        <v>-0.6194835901260376</v>
       </c>
       <c r="F96" t="n">
-        <v>-14.72830772399902</v>
+        <v>22.32712554931641</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>36.76991653442383</v>
+        <v>40.71506500244141</v>
       </c>
       <c r="B97" t="n">
-        <v>36.12729263305664</v>
+        <v>5.74466609954834</v>
       </c>
       <c r="C97" t="n">
-        <v>12.51712226867676</v>
+        <v>19.53168487548828</v>
       </c>
       <c r="D97" t="n">
-        <v>10.90594291687012</v>
+        <v>17.68749618530273</v>
       </c>
       <c r="E97" t="n">
-        <v>-11.26028060913086</v>
+        <v>-3.342226028442383</v>
       </c>
       <c r="F97" t="n">
-        <v>-14.72830772399902</v>
+        <v>24.27085113525391</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>37.30332565307617</v>
+        <v>40.46711349487305</v>
       </c>
       <c r="B98" t="n">
-        <v>36.68591690063477</v>
+        <v>4.043370246887207</v>
       </c>
       <c r="C98" t="n">
-        <v>8.71855354309082</v>
+        <v>14.36047267913818</v>
       </c>
       <c r="D98" t="n">
-        <v>7.616843700408936</v>
+        <v>17.85372161865234</v>
       </c>
       <c r="E98" t="n">
-        <v>-9.878503799438477</v>
+        <v>-6.274292945861816</v>
       </c>
       <c r="F98" t="n">
-        <v>-14.70373344421387</v>
+        <v>25.71205139160156</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>38.93849182128906</v>
+        <v>40.0089111328125</v>
       </c>
       <c r="B99" t="n">
-        <v>38.3148193359375</v>
+        <v>2.53360652923584</v>
       </c>
       <c r="C99" t="n">
-        <v>6.525742053985596</v>
+        <v>10.14275360107422</v>
       </c>
       <c r="D99" t="n">
-        <v>5.503823280334473</v>
+        <v>18.20114707946777</v>
       </c>
       <c r="E99" t="n">
-        <v>-9.878503799438477</v>
+        <v>-9.624285697937012</v>
       </c>
       <c r="F99" t="n">
-        <v>-14.70373344421387</v>
+        <v>26.85245132446289</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>38.93849182128906</v>
+        <v>36.86686706542969</v>
       </c>
       <c r="B100" t="n">
-        <v>38.3148193359375</v>
+        <v>2.53360652923584</v>
       </c>
       <c r="C100" t="n">
-        <v>6.525742053985596</v>
+        <v>7.662991046905518</v>
       </c>
       <c r="D100" t="n">
-        <v>5.503823280334473</v>
+        <v>18.92876434326172</v>
       </c>
       <c r="E100" t="n">
-        <v>-12.62014389038086</v>
+        <v>-11.41619777679443</v>
       </c>
       <c r="F100" t="n">
-        <v>-13.98218441009521</v>
+        <v>26.85245132446289</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>39.84169387817383</v>
+        <v>33.32788848876953</v>
       </c>
       <c r="B101" t="n">
-        <v>38.22874450683594</v>
+        <v>1.680966138839722</v>
       </c>
       <c r="C101" t="n">
-        <v>9.774944305419922</v>
+        <v>5.921571731567383</v>
       </c>
       <c r="D101" t="n">
-        <v>7.41785717010498</v>
+        <v>20.27506637573242</v>
       </c>
       <c r="E101" t="n">
-        <v>-16.86189651489258</v>
+        <v>-12.45133876800537</v>
       </c>
       <c r="F101" t="n">
-        <v>-15.25818061828613</v>
+        <v>26.38064002990723</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>40.95317077636719</v>
+        <v>28.97647666931152</v>
       </c>
       <c r="B102" t="n">
-        <v>40.80744552612305</v>
+        <v>0.1152332425117493</v>
       </c>
       <c r="C102" t="n">
-        <v>11.35114669799805</v>
+        <v>5.921571731567383</v>
       </c>
       <c r="D102" t="n">
-        <v>9.375890731811523</v>
+        <v>23.42593574523926</v>
       </c>
       <c r="E102" t="n">
-        <v>-16.86189651489258</v>
+        <v>-12.45133876800537</v>
       </c>
       <c r="F102" t="n">
-        <v>-15.25818061828613</v>
+        <v>20.95067977905273</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>40.95317077636719</v>
+        <v>34.74422073364258</v>
       </c>
       <c r="B103" t="n">
-        <v>40.80744552612305</v>
+        <v>0.06742745637893677</v>
       </c>
       <c r="C103" t="n">
-        <v>12.61188316345215</v>
+        <v>9.796042442321777</v>
       </c>
       <c r="D103" t="n">
-        <v>11.9310131072998</v>
+        <v>23.42593574523926</v>
       </c>
       <c r="E103" t="n">
-        <v>-17.69610977172852</v>
+        <v>-15.59569454193115</v>
       </c>
       <c r="F103" t="n">
-        <v>-17.21508026123047</v>
+        <v>12.86025238037109</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>42.54195785522461</v>
+        <v>37.81063842773438</v>
       </c>
       <c r="B104" t="n">
-        <v>41.44022369384766</v>
+        <v>-0.1412536799907684</v>
       </c>
       <c r="C104" t="n">
-        <v>14.79597663879395</v>
+        <v>9.796042442321777</v>
       </c>
       <c r="D104" t="n">
-        <v>14.81068801879883</v>
+        <v>25.27683258056641</v>
       </c>
       <c r="E104" t="n">
-        <v>-22.12426948547363</v>
+        <v>-18.22892951965332</v>
       </c>
       <c r="F104" t="n">
-        <v>-22.33820343017578</v>
+        <v>4.490193367004395</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43.49178314208984</v>
+        <v>37.81063842773438</v>
       </c>
       <c r="B105" t="n">
-        <v>42.665283203125</v>
+        <v>1.060599088668823</v>
       </c>
       <c r="C105" t="n">
-        <v>18.31264877319336</v>
+        <v>10.07635498046875</v>
       </c>
       <c r="D105" t="n">
-        <v>19.33082580566406</v>
+        <v>28.14230537414551</v>
       </c>
       <c r="E105" t="n">
-        <v>-24.85255241394043</v>
+        <v>-20.40302658081055</v>
       </c>
       <c r="F105" t="n">
-        <v>-24.1956901550293</v>
+        <v>-4.744179248809814</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>42.79429244995117</v>
+        <v>36.25152587890625</v>
       </c>
       <c r="B106" t="n">
-        <v>43.2138557434082</v>
+        <v>3.100785255432129</v>
       </c>
       <c r="C106" t="n">
-        <v>21.59906768798828</v>
+        <v>7.556704521179199</v>
       </c>
       <c r="D106" t="n">
-        <v>23.25820159912109</v>
+        <v>31.99045944213867</v>
       </c>
       <c r="E106" t="n">
-        <v>-24.85255241394043</v>
+        <v>-22.9001579284668</v>
       </c>
       <c r="F106" t="n">
-        <v>-23.02912139892578</v>
+        <v>-14.38589096069336</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>42.93988800048828</v>
+        <v>33.85509490966797</v>
       </c>
       <c r="B107" t="n">
-        <v>41.99676513671875</v>
+        <v>5.987870216369629</v>
       </c>
       <c r="C107" t="n">
-        <v>24.25104904174805</v>
+        <v>7.556704521179199</v>
       </c>
       <c r="D107" t="n">
-        <v>25.60239791870117</v>
+        <v>37.13222503662109</v>
       </c>
       <c r="E107" t="n">
-        <v>-21.21306037902832</v>
+        <v>-24.89743423461914</v>
       </c>
       <c r="F107" t="n">
-        <v>-20.39826583862305</v>
+        <v>-23.16549301147461</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>42.04398727416992</v>
+        <v>31.28852081298828</v>
       </c>
       <c r="B108" t="n">
-        <v>40.37992858886719</v>
+        <v>9.322484970092773</v>
       </c>
       <c r="C108" t="n">
-        <v>26.0262565612793</v>
+        <v>5.691914558410645</v>
       </c>
       <c r="D108" t="n">
-        <v>26.96010208129883</v>
+        <v>43.38808059692383</v>
       </c>
       <c r="E108" t="n">
-        <v>-17.01977729797363</v>
+        <v>-24.89743423461914</v>
       </c>
       <c r="F108" t="n">
-        <v>-15.65458106994629</v>
+        <v>-29.33821487426758</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>40.67881774902344</v>
+        <v>28.95639419555664</v>
       </c>
       <c r="B109" t="n">
-        <v>38.32421875</v>
+        <v>12.91055202484131</v>
       </c>
       <c r="C109" t="n">
-        <v>27.03694152832031</v>
+        <v>5.912693977355957</v>
       </c>
       <c r="D109" t="n">
-        <v>26.96010208129883</v>
+        <v>50.09372711181641</v>
       </c>
       <c r="E109" t="n">
-        <v>-13.41928672790527</v>
+        <v>-25.29166793823242</v>
       </c>
       <c r="F109" t="n">
-        <v>-12.08670330047607</v>
+        <v>-32.15600967407227</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>37.73779296875</v>
+        <v>26.84303283691406</v>
       </c>
       <c r="B110" t="n">
-        <v>36.16975402832031</v>
+        <v>16.74266052246094</v>
       </c>
       <c r="C110" t="n">
-        <v>27.03694152832031</v>
+        <v>6.429945945739746</v>
       </c>
       <c r="D110" t="n">
-        <v>27.89342498779297</v>
+        <v>56.39590072631836</v>
       </c>
       <c r="E110" t="n">
-        <v>-10.32181835174561</v>
+        <v>-23.26400375366211</v>
       </c>
       <c r="F110" t="n">
-        <v>-7.860476016998291</v>
+        <v>-32.15600967407227</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>35.69490051269531</v>
+        <v>24.74764251708984</v>
       </c>
       <c r="B111" t="n">
-        <v>33.71363067626953</v>
+        <v>20.84244918823242</v>
       </c>
       <c r="C111" t="n">
-        <v>25.94829177856445</v>
+        <v>6.621596336364746</v>
       </c>
       <c r="D111" t="n">
-        <v>26.27110290527344</v>
+        <v>61.62887573242188</v>
       </c>
       <c r="E111" t="n">
-        <v>-7.083393573760986</v>
+        <v>-20.48440933227539</v>
       </c>
       <c r="F111" t="n">
-        <v>-4.446081638336182</v>
+        <v>-28.90070724487305</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>33.07596588134766</v>
+        <v>22.61028289794922</v>
       </c>
       <c r="B112" t="n">
-        <v>30.5697135925293</v>
+        <v>25.07169342041016</v>
       </c>
       <c r="C112" t="n">
-        <v>24.24194526672363</v>
+        <v>6.438736915588379</v>
       </c>
       <c r="D112" t="n">
-        <v>24.46402740478516</v>
+        <v>65.48458862304688</v>
       </c>
       <c r="E112" t="n">
-        <v>-4.9600830078125</v>
+        <v>-17.13387680053711</v>
       </c>
       <c r="F112" t="n">
-        <v>-2.487683296203613</v>
+        <v>-24.51882362365723</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>30.34983062744141</v>
+        <v>20.54434967041016</v>
       </c>
       <c r="B113" t="n">
-        <v>27.15643882751465</v>
+        <v>29.21444511413574</v>
       </c>
       <c r="C113" t="n">
-        <v>22.02443313598633</v>
+        <v>6.16536808013916</v>
       </c>
       <c r="D113" t="n">
-        <v>21.79463958740234</v>
+        <v>67.96810150146484</v>
       </c>
       <c r="E113" t="n">
-        <v>-3.765902280807495</v>
+        <v>-13.55713939666748</v>
       </c>
       <c r="F113" t="n">
-        <v>-2.487683296203613</v>
+        <v>-19.44285202026367</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>27.35741996765137</v>
+        <v>18.65798950195312</v>
       </c>
       <c r="B114" t="n">
-        <v>23.85709571838379</v>
+        <v>33.09701538085938</v>
       </c>
       <c r="C114" t="n">
-        <v>18.95713806152344</v>
+        <v>6.037894248962402</v>
       </c>
       <c r="D114" t="n">
-        <v>18.5425910949707</v>
+        <v>69.13056182861328</v>
       </c>
       <c r="E114" t="n">
-        <v>-2.242641448974609</v>
+        <v>-10.12174415588379</v>
       </c>
       <c r="F114" t="n">
-        <v>-2.490463972091675</v>
+        <v>-14.31798553466797</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>24.19243621826172</v>
+        <v>16.91213989257812</v>
       </c>
       <c r="B115" t="n">
-        <v>20.40258026123047</v>
+        <v>36.66916656494141</v>
       </c>
       <c r="C115" t="n">
-        <v>15.28011512756348</v>
+        <v>6.170416831970215</v>
       </c>
       <c r="D115" t="n">
-        <v>14.92805480957031</v>
+        <v>69.13056182861328</v>
       </c>
       <c r="E115" t="n">
-        <v>-2.242641448974609</v>
+        <v>-6.553838729858398</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.6072781682014465</v>
+        <v>-9.759500503540039</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>21.01633453369141</v>
+        <v>15.26903438568115</v>
       </c>
       <c r="B116" t="n">
-        <v>17.25789642333984</v>
+        <v>39.83772277832031</v>
       </c>
       <c r="C116" t="n">
-        <v>12.37360000610352</v>
+        <v>6.98920726776123</v>
       </c>
       <c r="D116" t="n">
-        <v>12.11101722717285</v>
+        <v>66.82559204101562</v>
       </c>
       <c r="E116" t="n">
-        <v>-2.693611145019531</v>
+        <v>-2.950835704803467</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.5710847973823547</v>
+        <v>-5.830735683441162</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>18.4057502746582</v>
+        <v>13.69028854370117</v>
       </c>
       <c r="B117" t="n">
-        <v>14.56503391265869</v>
+        <v>42.59373092651367</v>
       </c>
       <c r="C117" t="n">
-        <v>10.60246467590332</v>
+        <v>7.838112831115723</v>
       </c>
       <c r="D117" t="n">
-        <v>10.24103164672852</v>
+        <v>63.61923217773438</v>
       </c>
       <c r="E117" t="n">
-        <v>-1.580438613891602</v>
+        <v>0.5113270282745361</v>
       </c>
       <c r="F117" t="n">
-        <v>-1.746602773666382</v>
+        <v>-2.626700878143311</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>16.08691787719727</v>
+        <v>12.16080284118652</v>
       </c>
       <c r="B118" t="n">
-        <v>12.30487632751465</v>
+        <v>44.94497299194336</v>
       </c>
       <c r="C118" t="n">
-        <v>9.500938415527344</v>
+        <v>8.382908821105957</v>
       </c>
       <c r="D118" t="n">
-        <v>9.222537994384766</v>
+        <v>59.09464263916016</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3677680194377899</v>
+        <v>3.896663188934326</v>
       </c>
       <c r="F118" t="n">
-        <v>1.964690446853638</v>
+        <v>-0.35853511095047</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>13.85707473754883</v>
+        <v>10.70293426513672</v>
       </c>
       <c r="B119" t="n">
-        <v>10.03127288818359</v>
+        <v>46.834228515625</v>
       </c>
       <c r="C119" t="n">
-        <v>9.500938415527344</v>
+        <v>8.728981971740723</v>
       </c>
       <c r="D119" t="n">
-        <v>9.222537994384766</v>
+        <v>53.53837585449219</v>
       </c>
       <c r="E119" t="n">
-        <v>3.089617729187012</v>
+        <v>7.120827674865723</v>
       </c>
       <c r="F119" t="n">
-        <v>4.207862377166748</v>
+        <v>0.758258581161499</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>11.77168560028076</v>
+        <v>9.346736907958984</v>
       </c>
       <c r="B120" t="n">
-        <v>7.380281448364258</v>
+        <v>48.13890838623047</v>
       </c>
       <c r="C120" t="n">
-        <v>8.33562183380127</v>
+        <v>8.90375804901123</v>
       </c>
       <c r="D120" t="n">
-        <v>8.01830005645752</v>
+        <v>47.27468872070312</v>
       </c>
       <c r="E120" t="n">
-        <v>4.785276412963867</v>
+        <v>10.03274726867676</v>
       </c>
       <c r="F120" t="n">
-        <v>6.10234546661377</v>
+        <v>0.758258581161499</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9.555919647216797</v>
+        <v>8.073518753051758</v>
       </c>
       <c r="B121" t="n">
-        <v>4.716732025146484</v>
+        <v>48.13890838623047</v>
       </c>
       <c r="C121" t="n">
-        <v>7.948332786560059</v>
+        <v>8.95435619354248</v>
       </c>
       <c r="D121" t="n">
-        <v>6.930012702941895</v>
+        <v>40.62528610229492</v>
       </c>
       <c r="E121" t="n">
-        <v>6.867127418518066</v>
+        <v>12.87095642089844</v>
       </c>
       <c r="F121" t="n">
-        <v>8.046106338500977</v>
+        <v>0.9564251303672791</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>7.243852615356445</v>
+        <v>6.879070281982422</v>
       </c>
       <c r="B122" t="n">
-        <v>2.03204607963562</v>
+        <v>49.41351699829102</v>
       </c>
       <c r="C122" t="n">
-        <v>7.297049522399902</v>
+        <v>9.240704536437988</v>
       </c>
       <c r="D122" t="n">
-        <v>5.92880916595459</v>
+        <v>34.02081680297852</v>
       </c>
       <c r="E122" t="n">
-        <v>8.796390533447266</v>
+        <v>15.46157264709473</v>
       </c>
       <c r="F122" t="n">
-        <v>9.701457977294922</v>
+        <v>-0.3174229264259338</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>4.986923694610596</v>
+        <v>5.763742446899414</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.4669255018234253</v>
+        <v>48.77606582641602</v>
       </c>
       <c r="C123" t="n">
-        <v>6.977845191955566</v>
+        <v>9.76783561706543</v>
       </c>
       <c r="D123" t="n">
-        <v>5.229222297668457</v>
+        <v>27.89505767822266</v>
       </c>
       <c r="E123" t="n">
-        <v>11.32462978363037</v>
+        <v>17.64881896972656</v>
       </c>
       <c r="F123" t="n">
-        <v>11.58373832702637</v>
+        <v>-3.100547790527344</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.963840961456299</v>
+        <v>4.702089309692383</v>
       </c>
       <c r="B124" t="n">
-        <v>-2.887081861495972</v>
+        <v>47.78279876708984</v>
       </c>
       <c r="C124" t="n">
-        <v>7.141964912414551</v>
+        <v>10.69110679626465</v>
       </c>
       <c r="D124" t="n">
-        <v>4.964909553527832</v>
+        <v>22.6328010559082</v>
       </c>
       <c r="E124" t="n">
-        <v>12.87384033203125</v>
+        <v>19.46165466308594</v>
       </c>
       <c r="F124" t="n">
-        <v>12.96340179443359</v>
+        <v>-5.235381126403809</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.27383291721344</v>
+        <v>3.6252281665802</v>
       </c>
       <c r="B125" t="n">
-        <v>-5.004180431365967</v>
+        <v>46.653076171875</v>
       </c>
       <c r="C125" t="n">
-        <v>8.009821891784668</v>
+        <v>12.07698726654053</v>
       </c>
       <c r="D125" t="n">
-        <v>5.157618522644043</v>
+        <v>18.5219612121582</v>
       </c>
       <c r="E125" t="n">
-        <v>12.87384033203125</v>
+        <v>20.80617141723633</v>
       </c>
       <c r="F125" t="n">
-        <v>14.1490650177002</v>
+        <v>-7.563436031341553</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.0275300145149231</v>
+        <v>2.481170654296875</v>
       </c>
       <c r="B126" t="n">
-        <v>-6.622786521911621</v>
+        <v>45.43900299072266</v>
       </c>
       <c r="C126" t="n">
-        <v>10.99105739593506</v>
+        <v>13.38417148590088</v>
       </c>
       <c r="D126" t="n">
-        <v>6.22342586517334</v>
+        <v>15.67885971069336</v>
       </c>
       <c r="E126" t="n">
-        <v>14.63517951965332</v>
+        <v>20.80617141723633</v>
       </c>
       <c r="F126" t="n">
-        <v>15.60404586791992</v>
+        <v>-9.54311466217041</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-0.0275300145149231</v>
+        <v>1.305062532424927</v>
       </c>
       <c r="B127" t="n">
-        <v>-7.924042701721191</v>
+        <v>44.19904327392578</v>
       </c>
       <c r="C127" t="n">
-        <v>13.37888717651367</v>
+        <v>14.42950344085693</v>
       </c>
       <c r="D127" t="n">
-        <v>9.557001113891602</v>
+        <v>14.02497100830078</v>
       </c>
       <c r="E127" t="n">
-        <v>16.35408592224121</v>
+        <v>22.09788131713867</v>
       </c>
       <c r="F127" t="n">
-        <v>15.60404586791992</v>
+        <v>-11.40890693664551</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-1.688960313796997</v>
+        <v>0.1965331137180328</v>
       </c>
       <c r="B128" t="n">
-        <v>-7.924042701721191</v>
+        <v>42.88593292236328</v>
       </c>
       <c r="C128" t="n">
-        <v>16.85195159912109</v>
+        <v>15.54839515686035</v>
       </c>
       <c r="D128" t="n">
-        <v>11.97393131256104</v>
+        <v>14.02497100830078</v>
       </c>
       <c r="E128" t="n">
-        <v>13.40064144134521</v>
+        <v>19.03990936279297</v>
       </c>
       <c r="F128" t="n">
-        <v>13.15941619873047</v>
+        <v>-13.72537040710449</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-1.185900926589966</v>
+        <v>0.1965331137180328</v>
       </c>
       <c r="B129" t="n">
-        <v>-9.741702079772949</v>
+        <v>41.42020034790039</v>
       </c>
       <c r="C129" t="n">
-        <v>21.35482025146484</v>
+        <v>18.09203720092773</v>
       </c>
       <c r="D129" t="n">
-        <v>15.48329925537109</v>
+        <v>12.7748384475708</v>
       </c>
       <c r="E129" t="n">
-        <v>8.405299186706543</v>
+        <v>15.31267929077148</v>
       </c>
       <c r="F129" t="n">
-        <v>7.617509365081787</v>
+        <v>-16.47786331176758</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-0.1137535870075226</v>
+        <v>-1.696391582489014</v>
       </c>
       <c r="B130" t="n">
-        <v>-9.314284324645996</v>
+        <v>39.78461837768555</v>
       </c>
       <c r="C130" t="n">
-        <v>26.71030235290527</v>
+        <v>19.84050178527832</v>
       </c>
       <c r="D130" t="n">
-        <v>19.96435737609863</v>
+        <v>13.87607765197754</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.9588813781738281</v>
+        <v>9.192740440368652</v>
       </c>
       <c r="F130" t="n">
-        <v>-3.214252710342407</v>
+        <v>-18.89308547973633</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.711158514022827</v>
+        <v>-2.152293682098389</v>
       </c>
       <c r="B131" t="n">
-        <v>-6.157205104827881</v>
+        <v>37.97274780273438</v>
       </c>
       <c r="C131" t="n">
-        <v>32.27615356445312</v>
+        <v>22.34389877319336</v>
       </c>
       <c r="D131" t="n">
-        <v>25.19447708129883</v>
+        <v>15.32178401947021</v>
       </c>
       <c r="E131" t="n">
-        <v>-13.85795974731445</v>
+        <v>0.4698171615600586</v>
       </c>
       <c r="F131" t="n">
-        <v>-15.59046268463135</v>
+        <v>-18.89308547973633</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>4.419286727905273</v>
+        <v>-2.019851207733154</v>
       </c>
       <c r="B132" t="n">
-        <v>-3.693317413330078</v>
+        <v>34.98799133300781</v>
       </c>
       <c r="C132" t="n">
-        <v>37.76598358154297</v>
+        <v>26.11849594116211</v>
       </c>
       <c r="D132" t="n">
-        <v>30.60588073730469</v>
+        <v>16.72782897949219</v>
       </c>
       <c r="E132" t="n">
-        <v>-27.72511672973633</v>
+        <v>-9.722724914550781</v>
       </c>
       <c r="F132" t="n">
-        <v>-27.80409812927246</v>
+        <v>-20.58048057556152</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>6.743666648864746</v>
+        <v>0.5204672813415527</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.3834469318389893</v>
+        <v>33.47605895996094</v>
       </c>
       <c r="C133" t="n">
-        <v>43.48977661132812</v>
+        <v>31.47122764587402</v>
       </c>
       <c r="D133" t="n">
-        <v>36.58052062988281</v>
+        <v>17.81410026550293</v>
       </c>
       <c r="E133" t="n">
-        <v>-37.19655609130859</v>
+        <v>-19.53406143188477</v>
       </c>
       <c r="F133" t="n">
-        <v>-34.41579437255859</v>
+        <v>-17.68196487426758</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9.933528900146484</v>
+        <v>3.028898239135742</v>
       </c>
       <c r="B134" t="n">
-        <v>3.617790222167969</v>
+        <v>31.7365665435791</v>
       </c>
       <c r="C134" t="n">
-        <v>49.7981071472168</v>
+        <v>38.10192489624023</v>
       </c>
       <c r="D134" t="n">
-        <v>43.04285430908203</v>
+        <v>18.47860145568848</v>
       </c>
       <c r="E134" t="n">
-        <v>-39.48521423339844</v>
+        <v>-27.58432769775391</v>
       </c>
       <c r="F134" t="n">
-        <v>-34.41579437255859</v>
+        <v>-15.6414680480957</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>13.56526470184326</v>
+        <v>6.517936706542969</v>
       </c>
       <c r="B135" t="n">
-        <v>7.718888282775879</v>
+        <v>29.80815505981445</v>
       </c>
       <c r="C135" t="n">
-        <v>55.75502777099609</v>
+        <v>45.35799407958984</v>
       </c>
       <c r="D135" t="n">
-        <v>48.89899063110352</v>
+        <v>18.69965744018555</v>
       </c>
       <c r="E135" t="n">
-        <v>-36.92810821533203</v>
+        <v>-33.17935943603516</v>
       </c>
       <c r="F135" t="n">
-        <v>-29.74933624267578</v>
+        <v>-12.7055721282959</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>17.36262893676758</v>
+        <v>10.67958068847656</v>
       </c>
       <c r="B136" t="n">
-        <v>11.84866142272949</v>
+        <v>27.69441032409668</v>
       </c>
       <c r="C136" t="n">
-        <v>60.83023834228516</v>
+        <v>52.49444580078125</v>
       </c>
       <c r="D136" t="n">
-        <v>53.72840118408203</v>
+        <v>18.43994331359863</v>
       </c>
       <c r="E136" t="n">
-        <v>-32.48314666748047</v>
+        <v>-35.39517974853516</v>
       </c>
       <c r="F136" t="n">
-        <v>-24.45508575439453</v>
+        <v>-9.138944625854492</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>21.18403244018555</v>
+        <v>15.13145637512207</v>
       </c>
       <c r="B137" t="n">
-        <v>15.85860538482666</v>
+        <v>25.51047706604004</v>
       </c>
       <c r="C137" t="n">
-        <v>64.89840698242188</v>
+        <v>58.70454788208008</v>
       </c>
       <c r="D137" t="n">
-        <v>57.25607299804688</v>
+        <v>17.86669540405273</v>
       </c>
       <c r="E137" t="n">
-        <v>-26.10411834716797</v>
+        <v>-33.87413024902344</v>
       </c>
       <c r="F137" t="n">
-        <v>-19.421142578125</v>
+        <v>-5.408434391021729</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>24.88835144042969</v>
+        <v>19.51300811767578</v>
       </c>
       <c r="B138" t="n">
-        <v>19.91168403625488</v>
+        <v>23.43228912353516</v>
       </c>
       <c r="C138" t="n">
-        <v>67.61180114746094</v>
+        <v>63.28688812255859</v>
       </c>
       <c r="D138" t="n">
-        <v>59.60065460205078</v>
+        <v>17.22029304504395</v>
       </c>
       <c r="E138" t="n">
-        <v>-20.28730773925781</v>
+        <v>-29.16093063354492</v>
       </c>
       <c r="F138" t="n">
-        <v>-14.89170074462891</v>
+        <v>-1.959659337997437</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>28.38405990600586</v>
+        <v>23.58419799804688</v>
       </c>
       <c r="B139" t="n">
-        <v>23.99762725830078</v>
+        <v>21.5539665222168</v>
       </c>
       <c r="C139" t="n">
-        <v>68.72288513183594</v>
+        <v>65.753173828125</v>
       </c>
       <c r="D139" t="n">
-        <v>59.60065460205078</v>
+        <v>16.67911338806152</v>
       </c>
       <c r="E139" t="n">
-        <v>-14.24787712097168</v>
+        <v>-22.29452705383301</v>
       </c>
       <c r="F139" t="n">
-        <v>-10.0936222076416</v>
+        <v>1.126778244972229</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>31.39609527587891</v>
+        <v>27.2392578125</v>
       </c>
       <c r="B140" t="n">
-        <v>27.51939392089844</v>
+        <v>19.88467788696289</v>
       </c>
       <c r="C140" t="n">
-        <v>67.62032318115234</v>
+        <v>65.753173828125</v>
       </c>
       <c r="D140" t="n">
-        <v>60.02655410766602</v>
+        <v>16.29615211486816</v>
       </c>
       <c r="E140" t="n">
-        <v>-8.929059028625488</v>
+        <v>-14.63222312927246</v>
       </c>
       <c r="F140" t="n">
-        <v>-6.477367401123047</v>
+        <v>3.930868864059448</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>33.74661254882812</v>
+        <v>30.4991340637207</v>
       </c>
       <c r="B141" t="n">
-        <v>30.29905319213867</v>
+        <v>18.33290863037109</v>
       </c>
       <c r="C141" t="n">
-        <v>64.12220001220703</v>
+        <v>63.87593078613281</v>
       </c>
       <c r="D141" t="n">
-        <v>56.49474334716797</v>
+        <v>16.0726490020752</v>
       </c>
       <c r="E141" t="n">
-        <v>-5.159032821655273</v>
+        <v>-7.511345863342285</v>
       </c>
       <c r="F141" t="n">
-        <v>-4.744546413421631</v>
+        <v>6.676362037658691</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>35.52482604980469</v>
+        <v>33.37481689453125</v>
       </c>
       <c r="B142" t="n">
-        <v>32.45217514038086</v>
+        <v>16.81026840209961</v>
       </c>
       <c r="C142" t="n">
-        <v>58.19591522216797</v>
+        <v>59.65673065185547</v>
       </c>
       <c r="D142" t="n">
-        <v>50.90052795410156</v>
+        <v>16.02487754821777</v>
       </c>
       <c r="E142" t="n">
-        <v>-3.517530679702759</v>
+        <v>-1.840832233428955</v>
       </c>
       <c r="F142" t="n">
-        <v>-4.744546413421631</v>
+        <v>9.511457443237305</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>35.52482604980469</v>
+        <v>35.81613922119141</v>
       </c>
       <c r="B143" t="n">
-        <v>33.97316360473633</v>
+        <v>15.26832580566406</v>
       </c>
       <c r="C143" t="n">
-        <v>50.35616302490234</v>
+        <v>53.79953765869141</v>
       </c>
       <c r="D143" t="n">
-        <v>43.90338134765625</v>
+        <v>16.20209503173828</v>
       </c>
       <c r="E143" t="n">
-        <v>-2.396006107330322</v>
+        <v>1.921671152114868</v>
       </c>
       <c r="F143" t="n">
-        <v>-4.424521446228027</v>
+        <v>12.32303905487061</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>37.37488555908203</v>
+        <v>37.78004455566406</v>
       </c>
       <c r="B144" t="n">
-        <v>34.98017120361328</v>
+        <v>13.62065124511719</v>
       </c>
       <c r="C144" t="n">
-        <v>41.68264007568359</v>
+        <v>46.84260559082031</v>
       </c>
       <c r="D144" t="n">
-        <v>36.34122467041016</v>
+        <v>16.52912330627441</v>
       </c>
       <c r="E144" t="n">
-        <v>-5.191051483154297</v>
+        <v>3.634893894195557</v>
       </c>
       <c r="F144" t="n">
-        <v>-6.861400604248047</v>
+        <v>15.00799560546875</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>37.73854446411133</v>
+        <v>39.15544509887695</v>
       </c>
       <c r="B145" t="n">
-        <v>34.98017120361328</v>
+        <v>11.89214897155762</v>
       </c>
       <c r="C145" t="n">
-        <v>33.27233123779297</v>
+        <v>39.43296432495117</v>
       </c>
       <c r="D145" t="n">
-        <v>28.74814605712891</v>
+        <v>16.85848045349121</v>
       </c>
       <c r="E145" t="n">
-        <v>-9.099700927734375</v>
+        <v>3.634893894195557</v>
       </c>
       <c r="F145" t="n">
-        <v>-10.8903980255127</v>
+        <v>17.50092124938965</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>38.16139602661133</v>
+        <v>39.15544509887695</v>
       </c>
       <c r="B146" t="n">
-        <v>36.29051971435547</v>
+        <v>9.974295616149902</v>
       </c>
       <c r="C146" t="n">
-        <v>25.71713638305664</v>
+        <v>32.11798858642578</v>
       </c>
       <c r="D146" t="n">
-        <v>22.09126281738281</v>
+        <v>17.21555328369141</v>
       </c>
       <c r="E146" t="n">
-        <v>-12.37838459014893</v>
+        <v>1.892689228057861</v>
       </c>
       <c r="F146" t="n">
-        <v>-13.89900588989258</v>
+        <v>19.91828918457031</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>37.84695816040039</v>
+        <v>40.80313873291016</v>
       </c>
       <c r="B147" t="n">
-        <v>36.36127090454102</v>
+        <v>7.961198806762695</v>
       </c>
       <c r="C147" t="n">
-        <v>18.92252731323242</v>
+        <v>25.38823890686035</v>
       </c>
       <c r="D147" t="n">
-        <v>16.54930305480957</v>
+        <v>17.48100471496582</v>
       </c>
       <c r="E147" t="n">
-        <v>-12.37838459014893</v>
+        <v>-0.4742305278778076</v>
       </c>
       <c r="F147" t="n">
-        <v>-13.89900588989258</v>
+        <v>22.10930824279785</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>36.65814971923828</v>
+        <v>40.5228385925293</v>
       </c>
       <c r="B148" t="n">
-        <v>35.99639892578125</v>
+        <v>5.88402795791626</v>
       </c>
       <c r="C148" t="n">
-        <v>12.51302528381348</v>
+        <v>19.48524475097656</v>
       </c>
       <c r="D148" t="n">
-        <v>11.1746768951416</v>
+        <v>17.71917152404785</v>
       </c>
       <c r="E148" t="n">
-        <v>-10.85722351074219</v>
+        <v>-3.224825859069824</v>
       </c>
       <c r="F148" t="n">
-        <v>-15.22329330444336</v>
+        <v>24.09434509277344</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>37.31500244140625</v>
+        <v>40.14048767089844</v>
       </c>
       <c r="B149" t="n">
-        <v>36.67473220825195</v>
+        <v>4.057094097137451</v>
       </c>
       <c r="C149" t="n">
-        <v>8.514926910400391</v>
+        <v>14.62574005126953</v>
       </c>
       <c r="D149" t="n">
-        <v>7.956464290618896</v>
+        <v>17.91758728027344</v>
       </c>
       <c r="E149" t="n">
-        <v>-9.740224838256836</v>
+        <v>-6.077642440795898</v>
       </c>
       <c r="F149" t="n">
-        <v>-14.41692447662354</v>
+        <v>25.48654174804688</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>39.04792022705078</v>
+        <v>39.64794921875</v>
       </c>
       <c r="B150" t="n">
-        <v>38.36228942871094</v>
+        <v>2.510187387466431</v>
       </c>
       <c r="C150" t="n">
-        <v>6.137630939483643</v>
+        <v>10.60810852050781</v>
       </c>
       <c r="D150" t="n">
-        <v>5.810175895690918</v>
+        <v>18.25192642211914</v>
       </c>
       <c r="E150" t="n">
-        <v>-9.740224838256836</v>
+        <v>-9.334541320800781</v>
       </c>
       <c r="F150" t="n">
-        <v>-14.41692447662354</v>
+        <v>26.64623641967773</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>39.04792022705078</v>
+        <v>36.62958526611328</v>
       </c>
       <c r="B151" t="n">
-        <v>38.36228942871094</v>
+        <v>2.510187387466431</v>
       </c>
       <c r="C151" t="n">
-        <v>7.207615852355957</v>
+        <v>8.479854583740234</v>
       </c>
       <c r="D151" t="n">
-        <v>5.810175895690918</v>
+        <v>18.95382690429688</v>
       </c>
       <c r="E151" t="n">
-        <v>-12.7829475402832</v>
+        <v>-10.86994552612305</v>
       </c>
       <c r="F151" t="n">
-        <v>-13.83399200439453</v>
+        <v>26.64623641967773</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>39.79241180419922</v>
+        <v>33.26450347900391</v>
       </c>
       <c r="B152" t="n">
-        <v>37.83676910400391</v>
+        <v>2.481959104537964</v>
       </c>
       <c r="C152" t="n">
-        <v>9.113853454589844</v>
+        <v>6.755670070648193</v>
       </c>
       <c r="D152" t="n">
-        <v>7.992550849914551</v>
+        <v>20.43855094909668</v>
       </c>
       <c r="E152" t="n">
-        <v>-17.01414108276367</v>
+        <v>-10.86994552612305</v>
       </c>
       <c r="F152" t="n">
-        <v>-13.83399200439453</v>
+        <v>25.26823997497559</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>41.33196258544922</v>
+        <v>28.82396507263184</v>
       </c>
       <c r="B153" t="n">
-        <v>40.97175979614258</v>
+        <v>0.8302581906318665</v>
       </c>
       <c r="C153" t="n">
-        <v>10.91677474975586</v>
+        <v>6.755670070648193</v>
       </c>
       <c r="D153" t="n">
-        <v>9.884806632995605</v>
+        <v>23.17117691040039</v>
       </c>
       <c r="E153" t="n">
-        <v>-15.97384166717529</v>
+        <v>-12.77487564086914</v>
       </c>
       <c r="F153" t="n">
-        <v>-14.39596652984619</v>
+        <v>20.82558059692383</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>41.33196258544922</v>
+        <v>34.55011749267578</v>
       </c>
       <c r="B154" t="n">
-        <v>40.97175979614258</v>
+        <v>0.9572895169258118</v>
       </c>
       <c r="C154" t="n">
-        <v>12.3983325958252</v>
+        <v>10.48686981201172</v>
       </c>
       <c r="D154" t="n">
-        <v>12.1487512588501</v>
+        <v>23.17117691040039</v>
       </c>
       <c r="E154" t="n">
-        <v>-17.20260047912598</v>
+        <v>-14.92923736572266</v>
       </c>
       <c r="F154" t="n">
-        <v>-16.86848258972168</v>
+        <v>12.67847061157227</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>42.32245635986328</v>
+        <v>38.11884307861328</v>
       </c>
       <c r="B155" t="n">
-        <v>41.16253280639648</v>
+        <v>-0.1384203433990479</v>
       </c>
       <c r="C155" t="n">
-        <v>14.57307052612305</v>
+        <v>10.48686981201172</v>
       </c>
       <c r="D155" t="n">
-        <v>14.48652839660645</v>
+        <v>25.86793518066406</v>
       </c>
       <c r="E155" t="n">
-        <v>-21.6472282409668</v>
+        <v>-17.92379570007324</v>
       </c>
       <c r="F155" t="n">
-        <v>-22.07310104370117</v>
+        <v>4.474830627441406</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>43.83174514770508</v>
+        <v>38.11884307861328</v>
       </c>
       <c r="B156" t="n">
-        <v>42.39557647705078</v>
+        <v>0.8817532062530518</v>
       </c>
       <c r="C156" t="n">
-        <v>18.23977279663086</v>
+        <v>11.04102420806885</v>
       </c>
       <c r="D156" t="n">
-        <v>18.83114242553711</v>
+        <v>28.95452499389648</v>
       </c>
       <c r="E156" t="n">
-        <v>-24.33061599731445</v>
+        <v>-19.8564567565918</v>
       </c>
       <c r="F156" t="n">
-        <v>-23.93456077575684</v>
+        <v>-4.553336620330811</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>42.7510986328125</v>
+        <v>36.93161392211914</v>
       </c>
       <c r="B157" t="n">
-        <v>42.64032363891602</v>
+        <v>2.691904067993164</v>
       </c>
       <c r="C157" t="n">
-        <v>21.58857536315918</v>
+        <v>9.039529800415039</v>
       </c>
       <c r="D157" t="n">
-        <v>22.91756439208984</v>
+        <v>32.81640625</v>
       </c>
       <c r="E157" t="n">
-        <v>-24.33061599731445</v>
+        <v>-22.12504386901855</v>
       </c>
       <c r="F157" t="n">
-        <v>-22.85786437988281</v>
+        <v>-14.13834571838379</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>42.81474304199219</v>
+        <v>34.35962295532227</v>
       </c>
       <c r="B158" t="n">
-        <v>42.08242797851562</v>
+        <v>5.679230213165283</v>
       </c>
       <c r="C158" t="n">
-        <v>24.1963996887207</v>
+        <v>7.576969623565674</v>
       </c>
       <c r="D158" t="n">
-        <v>25.5085334777832</v>
+        <v>37.82417297363281</v>
       </c>
       <c r="E158" t="n">
-        <v>-21.03175354003906</v>
+        <v>-24.14607238769531</v>
       </c>
       <c r="F158" t="n">
-        <v>-20.27949142456055</v>
+        <v>-22.96255111694336</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>41.7969856262207</v>
+        <v>31.45523071289062</v>
       </c>
       <c r="B159" t="n">
-        <v>40.45002746582031</v>
+        <v>9.31810474395752</v>
       </c>
       <c r="C159" t="n">
-        <v>25.83568382263184</v>
+        <v>7.576969623565674</v>
       </c>
       <c r="D159" t="n">
-        <v>26.93296241760254</v>
+        <v>43.94911575317383</v>
       </c>
       <c r="E159" t="n">
-        <v>-16.8551139831543</v>
+        <v>-24.14607238769531</v>
       </c>
       <c r="F159" t="n">
-        <v>-15.61726760864258</v>
+        <v>-29.38364791870117</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>40.28367233276367</v>
+        <v>28.81740760803223</v>
       </c>
       <c r="B160" t="n">
-        <v>38.32072830200195</v>
+        <v>13.19341468811035</v>
       </c>
       <c r="C160" t="n">
-        <v>25.83568382263184</v>
+        <v>5.687167167663574</v>
       </c>
       <c r="D160" t="n">
-        <v>26.93296241760254</v>
+        <v>50.63594436645508</v>
       </c>
       <c r="E160" t="n">
-        <v>-13.34692668914795</v>
+        <v>-25.03237533569336</v>
       </c>
       <c r="F160" t="n">
-        <v>-12.03460121154785</v>
+        <v>-32.4515380859375</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>37.50843811035156</v>
+        <v>26.59183311462402</v>
       </c>
       <c r="B161" t="n">
-        <v>36.16831588745117</v>
+        <v>17.13418960571289</v>
       </c>
       <c r="C161" t="n">
-        <v>27.74796485900879</v>
+        <v>6.047776222229004</v>
       </c>
       <c r="D161" t="n">
-        <v>27.83031845092773</v>
+        <v>57.00296401977539</v>
       </c>
       <c r="E161" t="n">
-        <v>-10.37669944763184</v>
+        <v>-23.01836013793945</v>
       </c>
       <c r="F161" t="n">
-        <v>-7.843070983886719</v>
+        <v>-32.4515380859375</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>35.60142135620117</v>
+        <v>24.54325485229492</v>
       </c>
       <c r="B162" t="n">
-        <v>33.76972198486328</v>
+        <v>21.18026351928711</v>
       </c>
       <c r="C162" t="n">
-        <v>27.2427978515625</v>
+        <v>6.451434135437012</v>
       </c>
       <c r="D162" t="n">
-        <v>27.40940284729004</v>
+        <v>62.23992156982422</v>
       </c>
       <c r="E162" t="n">
-        <v>-7.255989074707031</v>
+        <v>-20.23873138427734</v>
       </c>
       <c r="F162" t="n">
-        <v>-4.360296249389648</v>
+        <v>-29.28089904785156</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>33.02155685424805</v>
+        <v>22.47184181213379</v>
       </c>
       <c r="B163" t="n">
-        <v>30.73804092407227</v>
+        <v>25.30694389343262</v>
       </c>
       <c r="C163" t="n">
-        <v>24.01481628417969</v>
+        <v>6.53180980682373</v>
       </c>
       <c r="D163" t="n">
-        <v>24.24100112915039</v>
+        <v>65.96261596679688</v>
       </c>
       <c r="E163" t="n">
-        <v>-5.156689643859863</v>
+        <v>-16.90248489379883</v>
       </c>
       <c r="F163" t="n">
-        <v>-2.365079402923584</v>
+        <v>-24.85737228393555</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>30.22908782958984</v>
+        <v>20.40721893310547</v>
       </c>
       <c r="B164" t="n">
-        <v>27.35533905029297</v>
+        <v>29.38156890869141</v>
       </c>
       <c r="C164" t="n">
-        <v>22.02444267272949</v>
+        <v>6.348706245422363</v>
       </c>
       <c r="D164" t="n">
-        <v>21.86727142333984</v>
+        <v>68.25677490234375</v>
       </c>
       <c r="E164" t="n">
-        <v>-4.004538536071777</v>
+        <v>-13.34586334228516</v>
       </c>
       <c r="F164" t="n">
-        <v>-2.365079402923584</v>
+        <v>-19.8231201171875</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>27.27195358276367</v>
+        <v>18.48416328430176</v>
       </c>
       <c r="B165" t="n">
-        <v>24.06231307983398</v>
+        <v>33.2392578125</v>
       </c>
       <c r="C165" t="n">
-        <v>19.16617202758789</v>
+        <v>6.120835304260254</v>
       </c>
       <c r="D165" t="n">
-        <v>18.77731323242188</v>
+        <v>69.32763671875</v>
       </c>
       <c r="E165" t="n">
-        <v>-2.487704753875732</v>
+        <v>-9.942705154418945</v>
       </c>
       <c r="F165" t="n">
-        <v>-2.265797853469849</v>
+        <v>-14.78678321838379</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>24.14912796020508</v>
+        <v>16.72689056396484</v>
       </c>
       <c r="B166" t="n">
-        <v>20.58654403686523</v>
+        <v>36.78563690185547</v>
       </c>
       <c r="C166" t="n">
-        <v>15.52122688293457</v>
+        <v>6.08228588104248</v>
       </c>
       <c r="D166" t="n">
-        <v>15.13679122924805</v>
+        <v>69.32763671875</v>
       </c>
       <c r="E166" t="n">
-        <v>-2.487704753875732</v>
+        <v>-6.417579650878906</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.3596747219562531</v>
+        <v>-10.31312656402588</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>20.95370292663574</v>
+        <v>15.12154102325439</v>
       </c>
       <c r="B167" t="n">
-        <v>17.39951515197754</v>
+        <v>39.88143920898438</v>
       </c>
       <c r="C167" t="n">
-        <v>12.45927238464355</v>
+        <v>6.856383323669434</v>
       </c>
       <c r="D167" t="n">
-        <v>12.16779708862305</v>
+        <v>67.25633239746094</v>
       </c>
       <c r="E167" t="n">
-        <v>-2.803912162780762</v>
+        <v>-2.839601516723633</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.4025123417377472</v>
+        <v>-6.439737319946289</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>18.31082534790039</v>
+        <v>13.60006427764893</v>
       </c>
       <c r="B168" t="n">
-        <v>14.74870109558105</v>
+        <v>42.50484085083008</v>
       </c>
       <c r="C168" t="n">
-        <v>10.55243301391602</v>
+        <v>7.892876625061035</v>
       </c>
       <c r="D168" t="n">
-        <v>10.23459815979004</v>
+        <v>64.13603210449219</v>
       </c>
       <c r="E168" t="n">
-        <v>-1.766203880310059</v>
+        <v>0.5894026756286621</v>
       </c>
       <c r="F168" t="n">
-        <v>-1.622403860092163</v>
+        <v>-3.222254991531372</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16.09444046020508</v>
+        <v>12.09479904174805</v>
       </c>
       <c r="B169" t="n">
-        <v>12.55383491516113</v>
+        <v>44.71453094482422</v>
       </c>
       <c r="C169" t="n">
-        <v>9.541515350341797</v>
+        <v>8.705195426940918</v>
       </c>
       <c r="D169" t="n">
-        <v>9.227258682250977</v>
+        <v>59.61003875732422</v>
       </c>
       <c r="E169" t="n">
-        <v>0.06730389595031738</v>
+        <v>3.92702841758728</v>
       </c>
       <c r="F169" t="n">
-        <v>2.016970872879028</v>
+        <v>-0.8950344920158386</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>13.98797225952148</v>
+        <v>10.61004161834717</v>
       </c>
       <c r="B170" t="n">
-        <v>10.4051342010498</v>
+        <v>46.51896667480469</v>
       </c>
       <c r="C170" t="n">
-        <v>9.541515350341797</v>
+        <v>9.226781845092773</v>
       </c>
       <c r="D170" t="n">
-        <v>9.227258682250977</v>
+        <v>53.98998260498047</v>
       </c>
       <c r="E170" t="n">
-        <v>2.695234775543213</v>
+        <v>7.140072345733643</v>
       </c>
       <c r="F170" t="n">
-        <v>4.241084575653076</v>
+        <v>0.3103669583797455</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>11.97626304626465</v>
+        <v>9.196319580078125</v>
       </c>
       <c r="B171" t="n">
-        <v>7.900627136230469</v>
+        <v>47.82557678222656</v>
       </c>
       <c r="C171" t="n">
-        <v>8.566439628601074</v>
+        <v>9.400345802307129</v>
       </c>
       <c r="D171" t="n">
-        <v>8.153666496276855</v>
+        <v>47.65994644165039</v>
       </c>
       <c r="E171" t="n">
-        <v>4.336158275604248</v>
+        <v>10.06840324401855</v>
       </c>
       <c r="F171" t="n">
-        <v>6.102500915527344</v>
+        <v>0.3103669583797455</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>9.832529067993164</v>
+        <v>7.87370491027832</v>
       </c>
       <c r="B172" t="n">
-        <v>5.315524101257324</v>
+        <v>47.82557678222656</v>
       </c>
       <c r="C172" t="n">
-        <v>8.250042915344238</v>
+        <v>9.249636650085449</v>
       </c>
       <c r="D172" t="n">
-        <v>7.293557167053223</v>
+        <v>40.9650764465332</v>
       </c>
       <c r="E172" t="n">
-        <v>6.374035835266113</v>
+        <v>12.89995193481445</v>
       </c>
       <c r="F172" t="n">
-        <v>8.000591278076172</v>
+        <v>0.6270193457603455</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>7.581781387329102</v>
+        <v>6.668163299560547</v>
       </c>
       <c r="B173" t="n">
-        <v>2.68036675453186</v>
+        <v>49.20077133178711</v>
       </c>
       <c r="C173" t="n">
-        <v>7.617730140686035</v>
+        <v>9.215662956237793</v>
       </c>
       <c r="D173" t="n">
-        <v>6.330451011657715</v>
+        <v>34.33111572265625</v>
       </c>
       <c r="E173" t="n">
-        <v>8.318630218505859</v>
+        <v>15.50607681274414</v>
       </c>
       <c r="F173" t="n">
-        <v>9.716804504394531</v>
+        <v>-0.727478563785553</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>5.328489780426025</v>
+        <v>5.597721099853516</v>
       </c>
       <c r="B174" t="n">
-        <v>0.2075966596603394</v>
+        <v>48.56818771362305</v>
       </c>
       <c r="C174" t="n">
-        <v>7.111899375915527</v>
+        <v>9.495210647583008</v>
       </c>
       <c r="D174" t="n">
-        <v>5.523123741149902</v>
+        <v>28.18891525268555</v>
       </c>
       <c r="E174" t="n">
-        <v>10.79943180084229</v>
+        <v>17.67842483520508</v>
       </c>
       <c r="F174" t="n">
-        <v>11.62859916687012</v>
+        <v>-3.526811122894287</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>3.282569408416748</v>
+        <v>5.597721099853516</v>
       </c>
       <c r="B175" t="n">
-        <v>-2.202131032943726</v>
+        <v>47.47095108032227</v>
       </c>
       <c r="C175" t="n">
-        <v>7.116868019104004</v>
+        <v>10.33074569702148</v>
       </c>
       <c r="D175" t="n">
-        <v>5.253540992736816</v>
+        <v>22.90975570678711</v>
       </c>
       <c r="E175" t="n">
-        <v>12.3624153137207</v>
+        <v>19.4015998840332</v>
       </c>
       <c r="F175" t="n">
-        <v>13.05537796020508</v>
+        <v>-5.604281425476074</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.548060536384583</v>
+        <v>3.691608905792236</v>
       </c>
       <c r="B176" t="n">
-        <v>-4.334629058837891</v>
+        <v>46.17976379394531</v>
       </c>
       <c r="C176" t="n">
-        <v>7.874176979064941</v>
+        <v>11.84197902679443</v>
       </c>
       <c r="D176" t="n">
-        <v>5.420998573303223</v>
+        <v>18.7762451171875</v>
       </c>
       <c r="E176" t="n">
-        <v>12.3624153137207</v>
+        <v>20.62323760986328</v>
       </c>
       <c r="F176" t="n">
-        <v>14.17566680908203</v>
+        <v>-7.957231044769287</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.2001952528953552</v>
+        <v>2.806637287139893</v>
       </c>
       <c r="B177" t="n">
-        <v>-5.971125602722168</v>
+        <v>44.85038757324219</v>
       </c>
       <c r="C177" t="n">
-        <v>10.71079063415527</v>
+        <v>13.48686695098877</v>
       </c>
       <c r="D177" t="n">
-        <v>6.415774345397949</v>
+        <v>15.91127395629883</v>
       </c>
       <c r="E177" t="n">
-        <v>14.05260467529297</v>
+        <v>20.62323760986328</v>
       </c>
       <c r="F177" t="n">
-        <v>15.54807281494141</v>
+        <v>-9.967629432678223</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.2001952528953552</v>
+        <v>1.746517658233643</v>
       </c>
       <c r="B178" t="n">
-        <v>-7.267233848571777</v>
+        <v>43.59817504882812</v>
       </c>
       <c r="C178" t="n">
-        <v>13.06103134155273</v>
+        <v>14.81334495544434</v>
       </c>
       <c r="D178" t="n">
-        <v>9.685131072998047</v>
+        <v>14.24830913543701</v>
       </c>
       <c r="E178" t="n">
-        <v>15.52075958251953</v>
+        <v>21.77555084228516</v>
       </c>
       <c r="F178" t="n">
-        <v>15.54807281494141</v>
+        <v>-11.74382972717285</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-1.538672685623169</v>
+        <v>0.5709958672523499</v>
       </c>
       <c r="B179" t="n">
-        <v>-7.267233848571777</v>
+        <v>42.40456390380859</v>
       </c>
       <c r="C179" t="n">
-        <v>16.5084114074707</v>
+        <v>15.94201850891113</v>
       </c>
       <c r="D179" t="n">
-        <v>12.09223365783691</v>
+        <v>14.24830913543701</v>
       </c>
       <c r="E179" t="n">
-        <v>12.63917350769043</v>
+        <v>19.01529693603516</v>
       </c>
       <c r="F179" t="n">
-        <v>13.13588333129883</v>
+        <v>-13.89741039276123</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-1.024310350418091</v>
+        <v>-0.5239385962486267</v>
       </c>
       <c r="B180" t="n">
-        <v>-9.06226634979248</v>
+        <v>41.14220428466797</v>
       </c>
       <c r="C180" t="n">
-        <v>21.00835418701172</v>
+        <v>17.28226280212402</v>
       </c>
       <c r="D180" t="n">
-        <v>15.57252025604248</v>
+        <v>12.98877048492432</v>
       </c>
       <c r="E180" t="n">
-        <v>7.709010124206543</v>
+        <v>15.44295120239258</v>
       </c>
       <c r="F180" t="n">
-        <v>7.564249992370605</v>
+        <v>-16.62435531616211</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.1524569690227509</v>
+        <v>-1.364047527313232</v>
       </c>
       <c r="B181" t="n">
-        <v>-8.659476280212402</v>
+        <v>39.68875122070312</v>
       </c>
       <c r="C181" t="n">
-        <v>26.4232234954834</v>
+        <v>20.21553039550781</v>
       </c>
       <c r="D181" t="n">
-        <v>20.06604385375977</v>
+        <v>14.07727432250977</v>
       </c>
       <c r="E181" t="n">
-        <v>-1.425289154052734</v>
+        <v>9.420080184936523</v>
       </c>
       <c r="F181" t="n">
-        <v>-3.266448020935059</v>
+        <v>-19.21474456787109</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>3.221811771392822</v>
+        <v>-1.874528408050537</v>
       </c>
       <c r="B182" t="n">
-        <v>-5.553613185882568</v>
+        <v>38.0010871887207</v>
       </c>
       <c r="C182" t="n">
-        <v>32.1289176940918</v>
+        <v>22.24275207519531</v>
       </c>
       <c r="D182" t="n">
-        <v>25.37896728515625</v>
+        <v>15.57924747467041</v>
       </c>
       <c r="E182" t="n">
-        <v>-13.97655296325684</v>
+        <v>0.6896543502807617</v>
       </c>
       <c r="F182" t="n">
-        <v>-15.66036415100098</v>
+        <v>-20.27644729614258</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>4.992753505706787</v>
+        <v>-1.879592418670654</v>
       </c>
       <c r="B183" t="n">
-        <v>-3.139931678771973</v>
+        <v>35.10077667236328</v>
       </c>
       <c r="C183" t="n">
-        <v>37.6846923828125</v>
+        <v>25.58910942077637</v>
       </c>
       <c r="D183" t="n">
-        <v>30.85163497924805</v>
+        <v>17.13422203063965</v>
       </c>
       <c r="E183" t="n">
-        <v>-27.71826934814453</v>
+        <v>-9.567716598510742</v>
       </c>
       <c r="F183" t="n">
-        <v>-27.82898712158203</v>
+        <v>-20.27644729614258</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>7.340717315673828</v>
+        <v>0.4589495956897736</v>
       </c>
       <c r="B184" t="n">
-        <v>0.05845475196838379</v>
+        <v>33.55923843383789</v>
       </c>
       <c r="C184" t="n">
-        <v>43.37350082397461</v>
+        <v>30.71778106689453</v>
       </c>
       <c r="D184" t="n">
-        <v>36.74825286865234</v>
+        <v>18.39451789855957</v>
       </c>
       <c r="E184" t="n">
-        <v>-37.18327331542969</v>
+        <v>-19.32341384887695</v>
       </c>
       <c r="F184" t="n">
-        <v>-34.35299682617188</v>
+        <v>-17.89953804016113</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>10.49053764343262</v>
+        <v>3.021330833435059</v>
       </c>
       <c r="B185" t="n">
-        <v>3.918461799621582</v>
+        <v>31.76428413391113</v>
       </c>
       <c r="C185" t="n">
-        <v>49.53873443603516</v>
+        <v>37.42160034179688</v>
       </c>
       <c r="D185" t="n">
-        <v>43.00656127929688</v>
+        <v>19.14656639099121</v>
       </c>
       <c r="E185" t="n">
-        <v>-39.46952819824219</v>
+        <v>-27.22983169555664</v>
       </c>
       <c r="F185" t="n">
-        <v>-34.35299682617188</v>
+        <v>-15.76911735534668</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>14.09473514556885</v>
+        <v>6.633958339691162</v>
       </c>
       <c r="B186" t="n">
-        <v>7.908102512359619</v>
+        <v>29.79450607299805</v>
       </c>
       <c r="C186" t="n">
-        <v>55.41385650634766</v>
+        <v>44.93820953369141</v>
       </c>
       <c r="D186" t="n">
-        <v>48.67633056640625</v>
+        <v>19.30362129211426</v>
       </c>
       <c r="E186" t="n">
-        <v>-37.00989151000977</v>
+        <v>-32.72808074951172</v>
       </c>
       <c r="F186" t="n">
-        <v>-29.74954605102539</v>
+        <v>-12.83315563201904</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>17.87320518493652</v>
+        <v>10.922776222229</v>
       </c>
       <c r="B187" t="n">
-        <v>11.98399257659912</v>
+        <v>27.66156387329102</v>
       </c>
       <c r="C187" t="n">
-        <v>60.45475006103516</v>
+        <v>52.35169219970703</v>
       </c>
       <c r="D187" t="n">
-        <v>53.38909149169922</v>
+        <v>18.88278198242188</v>
       </c>
       <c r="E187" t="n">
-        <v>-32.63127136230469</v>
+        <v>-34.94866943359375</v>
       </c>
       <c r="F187" t="n">
-        <v>-24.6461353302002</v>
+        <v>-9.289196014404297</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>21.66335296630859</v>
+        <v>15.46396446228027</v>
       </c>
       <c r="B188" t="n">
-        <v>15.97518539428711</v>
+        <v>25.46284866333008</v>
       </c>
       <c r="C188" t="n">
-        <v>64.48078918457031</v>
+        <v>58.7650260925293</v>
       </c>
       <c r="D188" t="n">
-        <v>56.85774993896484</v>
+        <v>18.10235786437988</v>
       </c>
       <c r="E188" t="n">
-        <v>-26.42461395263672</v>
+        <v>-33.44130325317383</v>
       </c>
       <c r="F188" t="n">
-        <v>-19.65178680419922</v>
+        <v>-5.576694965362549</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>25.33039093017578</v>
+        <v>19.86556625366211</v>
       </c>
       <c r="B189" t="n">
-        <v>19.99626159667969</v>
+        <v>23.37825012207031</v>
       </c>
       <c r="C189" t="n">
-        <v>67.23013305664062</v>
+        <v>63.43457794189453</v>
       </c>
       <c r="D189" t="n">
-        <v>59.21150970458984</v>
+        <v>17.24749565124512</v>
       </c>
       <c r="E189" t="n">
-        <v>-20.65417671203613</v>
+        <v>-28.75661849975586</v>
       </c>
       <c r="F189" t="n">
-        <v>-15.20480251312256</v>
+        <v>-2.147961139678955</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>28.78563690185547</v>
+        <v>23.86534881591797</v>
       </c>
       <c r="B190" t="n">
-        <v>24.06471061706543</v>
+        <v>21.5265998840332</v>
       </c>
       <c r="C190" t="n">
-        <v>68.48863983154297</v>
+        <v>65.87767028808594</v>
       </c>
       <c r="D190" t="n">
-        <v>60.36347198486328</v>
+        <v>16.55626678466797</v>
       </c>
       <c r="E190" t="n">
-        <v>-14.77191352844238</v>
+        <v>-22.01144790649414</v>
       </c>
       <c r="F190" t="n">
-        <v>-10.49545669555664</v>
+        <v>0.887164831161499</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>31.74552154541016</v>
+        <v>27.3665657043457</v>
       </c>
       <c r="B191" t="n">
-        <v>27.60661506652832</v>
+        <v>19.92111587524414</v>
       </c>
       <c r="C191" t="n">
-        <v>68.48863983154297</v>
+        <v>65.87767028808594</v>
       </c>
       <c r="D191" t="n">
-        <v>60.36347198486328</v>
+        <v>16.11782836914062</v>
       </c>
       <c r="E191" t="n">
-        <v>-9.479459762573242</v>
+        <v>-14.52353954315186</v>
       </c>
       <c r="F191" t="n">
-        <v>-6.85149097442627</v>
+        <v>3.626713752746582</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>34.03627777099609</v>
+        <v>30.43374061584473</v>
       </c>
       <c r="B192" t="n">
-        <v>30.35446166992188</v>
+        <v>18.46059799194336</v>
       </c>
       <c r="C192" t="n">
-        <v>63.88113403320312</v>
+        <v>63.81769561767578</v>
       </c>
       <c r="D192" t="n">
-        <v>56.19567489624023</v>
+        <v>15.88553047180176</v>
       </c>
       <c r="E192" t="n">
-        <v>-5.66242790222168</v>
+        <v>-7.5138258934021</v>
       </c>
       <c r="F192" t="n">
-        <v>-5.095357894897461</v>
+        <v>6.301475048065186</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>35.72652053833008</v>
+        <v>33.16303634643555</v>
       </c>
       <c r="B193" t="n">
-        <v>32.41121673583984</v>
+        <v>17.02459907531738</v>
       </c>
       <c r="C193" t="n">
-        <v>58.15245819091797</v>
+        <v>59.61734008789062</v>
       </c>
       <c r="D193" t="n">
-        <v>50.9728889465332</v>
+        <v>15.8034725189209</v>
       </c>
       <c r="E193" t="n">
-        <v>-4.003323554992676</v>
+        <v>-1.838852643966675</v>
       </c>
       <c r="F193" t="n">
-        <v>-5.095357894897461</v>
+        <v>9.091289520263672</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>35.72652053833008</v>
+        <v>35.56392288208008</v>
       </c>
       <c r="B194" t="n">
-        <v>33.84275817871094</v>
+        <v>15.55292510986328</v>
       </c>
       <c r="C194" t="n">
-        <v>50.21054077148438</v>
+        <v>53.76067733764648</v>
       </c>
       <c r="D194" t="n">
-        <v>43.95213317871094</v>
+        <v>15.90990543365479</v>
       </c>
       <c r="E194" t="n">
-        <v>-2.917730093002319</v>
+        <v>2.027512550354004</v>
       </c>
       <c r="F194" t="n">
-        <v>-4.829368114471436</v>
+        <v>11.91909694671631</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>37.41817855834961</v>
+        <v>37.58147430419922</v>
       </c>
       <c r="B195" t="n">
-        <v>33.84275817871094</v>
+        <v>13.97606086730957</v>
       </c>
       <c r="C195" t="n">
-        <v>41.21047592163086</v>
+        <v>46.70895004272461</v>
       </c>
       <c r="D195" t="n">
-        <v>36.13250350952148</v>
+        <v>16.22449111938477</v>
       </c>
       <c r="E195" t="n">
-        <v>-5.88264799118042</v>
+        <v>3.877866268157959</v>
       </c>
       <c r="F195" t="n">
-        <v>-7.308185577392578</v>
+        <v>14.65180206298828</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>37.5898323059082</v>
+        <v>39.05001068115234</v>
       </c>
       <c r="B196" t="n">
-        <v>35.72231292724609</v>
+        <v>12.30622673034668</v>
       </c>
       <c r="C196" t="n">
-        <v>32.84914016723633</v>
+        <v>39.10739898681641</v>
       </c>
       <c r="D196" t="n">
-        <v>28.47140502929688</v>
+        <v>16.64393043518066</v>
       </c>
       <c r="E196" t="n">
-        <v>-9.867380142211914</v>
+        <v>3.877866268157959</v>
       </c>
       <c r="F196" t="n">
-        <v>-11.56748199462891</v>
+        <v>17.18351554870605</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>37.97886657714844</v>
+        <v>39.05001068115234</v>
       </c>
       <c r="B197" t="n">
-        <v>35.97992324829102</v>
+        <v>10.41720581054688</v>
       </c>
       <c r="C197" t="n">
-        <v>25.59582901000977</v>
+        <v>31.63078117370605</v>
       </c>
       <c r="D197" t="n">
-        <v>22.04520034790039</v>
+        <v>17.12627983093262</v>
       </c>
       <c r="E197" t="n">
-        <v>-12.86989593505859</v>
+        <v>2.176153421401978</v>
       </c>
       <c r="F197" t="n">
-        <v>-14.14841842651367</v>
+        <v>19.65973854064941</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>37.66046905517578</v>
+        <v>40.78149795532227</v>
       </c>
       <c r="B198" t="n">
-        <v>36.18648529052734</v>
+        <v>8.340549468994141</v>
       </c>
       <c r="C198" t="n">
-        <v>19.09316253662109</v>
+        <v>24.93611145019531</v>
       </c>
       <c r="D198" t="n">
-        <v>16.77699851989746</v>
+        <v>17.49838638305664</v>
       </c>
       <c r="E198" t="n">
-        <v>-12.86989593505859</v>
+        <v>-0.2845879793167114</v>
       </c>
       <c r="F198" t="n">
-        <v>-14.14841842651367</v>
+        <v>21.90486526489258</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>36.56678771972656</v>
+        <v>40.38117980957031</v>
       </c>
       <c r="B199" t="n">
-        <v>35.92433166503906</v>
+        <v>6.093233585357666</v>
       </c>
       <c r="C199" t="n">
-        <v>12.57622146606445</v>
+        <v>19.30331039428711</v>
       </c>
       <c r="D199" t="n">
-        <v>11.38032722473145</v>
+        <v>17.75470352172852</v>
       </c>
       <c r="E199" t="n">
-        <v>-10.47505760192871</v>
+        <v>-3.089591503143311</v>
       </c>
       <c r="F199" t="n">
-        <v>-14.56708526611328</v>
+        <v>23.93800354003906</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>37.35934066772461</v>
+        <v>39.85929489135742</v>
       </c>
       <c r="B200" t="n">
-        <v>36.69836044311523</v>
+        <v>4.08390474319458</v>
       </c>
       <c r="C200" t="n">
-        <v>8.390382766723633</v>
+        <v>14.85901641845703</v>
       </c>
       <c r="D200" t="n">
-        <v>8.224454879760742</v>
+        <v>17.95429039001465</v>
       </c>
       <c r="E200" t="n">
-        <v>-10.47505760192871</v>
+        <v>-5.889555931091309</v>
       </c>
       <c r="F200" t="n">
-        <v>-14.18260288238525</v>
+        <v>25.27368545532227</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>39.0960807800293</v>
+        <v>39.31347274780273</v>
       </c>
       <c r="B201" t="n">
-        <v>38.47800445556641</v>
+        <v>2.422250509262085</v>
       </c>
       <c r="C201" t="n">
-        <v>5.765722751617432</v>
+        <v>11.14311408996582</v>
       </c>
       <c r="D201" t="n">
-        <v>5.988461017608643</v>
+        <v>18.29405403137207</v>
       </c>
       <c r="E201" t="n">
-        <v>-10.00057029724121</v>
+        <v>-9.081295967102051</v>
       </c>
       <c r="F201" t="n">
-        <v>-14.18260288238525</v>
+        <v>26.45669937133789</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>39.0960807800293</v>
+        <v>36.40549468994141</v>
       </c>
       <c r="B202" t="n">
-        <v>38.47800445556641</v>
+        <v>2.422250509262085</v>
       </c>
       <c r="C202" t="n">
-        <v>7.074713706970215</v>
+        <v>9.418218612670898</v>
       </c>
       <c r="D202" t="n">
-        <v>5.988461017608643</v>
+        <v>19.01572036743164</v>
       </c>
       <c r="E202" t="n">
-        <v>-12.30413436889648</v>
+        <v>-10.32544708251953</v>
       </c>
       <c r="F202" t="n">
-        <v>-12.78927993774414</v>
+        <v>25.21622657775879</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>39.59894943237305</v>
+        <v>33.28351593017578</v>
       </c>
       <c r="B203" t="n">
-        <v>37.42320251464844</v>
+        <v>3.152222394943237</v>
       </c>
       <c r="C203" t="n">
-        <v>8.980669021606445</v>
+        <v>7.613770961761475</v>
       </c>
       <c r="D203" t="n">
-        <v>8.513262748718262</v>
+        <v>20.68356513977051</v>
       </c>
       <c r="E203" t="n">
-        <v>-16.87624549865723</v>
+        <v>-10.32544708251953</v>
       </c>
       <c r="F203" t="n">
-        <v>-14.56124210357666</v>
+        <v>25.21622657775879</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>41.75473785400391</v>
+        <v>33.28351593017578</v>
       </c>
       <c r="B204" t="n">
-        <v>41.21662139892578</v>
+        <v>1.430807828903198</v>
       </c>
       <c r="C204" t="n">
-        <v>10.76921367645264</v>
+        <v>7.613770961761475</v>
       </c>
       <c r="D204" t="n">
-        <v>11.2033166885376</v>
+        <v>21.82631683349609</v>
       </c>
       <c r="E204" t="n">
-        <v>-16.87624549865723</v>
+        <v>-13.41641426086426</v>
       </c>
       <c r="F204" t="n">
-        <v>-15.95665836334229</v>
+        <v>18.00454902648926</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>41.75473785400391</v>
+        <v>32.39900588989258</v>
       </c>
       <c r="B205" t="n">
-        <v>41.21662139892578</v>
+        <v>1.903073072433472</v>
       </c>
       <c r="C205" t="n">
-        <v>10.76921367645264</v>
+        <v>8.190526008605957</v>
       </c>
       <c r="D205" t="n">
-        <v>11.2033166885376</v>
+        <v>23.12262725830078</v>
       </c>
       <c r="E205" t="n">
-        <v>-16.73422431945801</v>
+        <v>-13.41641426086426</v>
       </c>
       <c r="F205" t="n">
-        <v>-15.95665836334229</v>
+        <v>18.00454902648926</v>
       </c>
     </row>
   </sheetData>
